--- a/src/object/OR_Purchase_m.xlsx
+++ b/src/object/OR_Purchase_m.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priti\workspace\JibesFunctionalTest\src\object\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priti\workspace\JibeFunctionalTest\src\object\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="722">
   <si>
     <t>AUTOMATION SCRIPTS</t>
   </si>
@@ -1156,9 +1156,6 @@
     <t xml:space="preserve"> Add New unit Packing</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>ctl00_MainContent_ImgAdd</t>
   </si>
   <si>
@@ -1333,21 +1330,12 @@
     <t>http://192.168.1.102/JIBE/Purchase/Purc_Config_Settings.aspx</t>
   </si>
   <si>
-    <t>PerchaseConfiSetting</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Requsition Type Click</t>
   </si>
   <si>
-    <t>1)Click on Requsition Type</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Requsition Type tab should be open</t>
   </si>
   <si>
-    <t>CheckBox</t>
-  </si>
-  <si>
     <t>ctl00_MainContent_ChkBxList_1</t>
   </si>
   <si>
@@ -1369,9 +1357,6 @@
     <t>ctl00_MainContent_tbCntr_TbConfigSetting_gvPOConfig_ctl19_lnkBtn_Supp</t>
   </si>
   <si>
-    <t>1)Click Supplier Type</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Supplier Type tab should be open</t>
   </si>
   <si>
@@ -1447,9 +1432,6 @@
     <t>ctl00_MainContent_tbCntr_TbConfigSetting_gvPOConfig_ctl19_btnupdate</t>
   </si>
   <si>
-    <t>PerchaseMandatory</t>
-  </si>
-  <si>
     <t>__tab_ctl00_MainContent_tbCntr_TbMandat_Set</t>
   </si>
   <si>
@@ -1477,9 +1459,6 @@
     <t xml:space="preserve"> Delivery Date checkBox should be checked</t>
   </si>
   <si>
-    <t>Click Upsdate</t>
-  </si>
-  <si>
     <t>ctl00_MainContent_tbCntr_TbMandat_Set_btnUpdate</t>
   </si>
   <si>
@@ -1489,9 +1468,6 @@
     <t>CaptureRank</t>
   </si>
   <si>
-    <t>Click</t>
-  </si>
-  <si>
     <t>__tab_ctl00_MainContent_tbCntr_tbNewRnk</t>
   </si>
   <si>
@@ -1513,18 +1489,12 @@
     <t>Dropdownlist should be open</t>
   </si>
   <si>
-    <t>Delete Click</t>
-  </si>
-  <si>
     <t>ctl00_MainContent_tbCntr_tbNewRnk_grdPurc_Crew_Rank_ctl04_btnDelete</t>
   </si>
   <si>
     <t>AutomaticRequisition</t>
   </si>
   <si>
-    <t xml:space="preserve">Click </t>
-  </si>
-  <si>
     <t>__tab_ctl00_MainContent_tbCntr_tbAutRqsn</t>
   </si>
   <si>
@@ -1534,12 +1504,6 @@
     <t xml:space="preserve">  AutomaticRequisition should be clicked</t>
   </si>
   <si>
-    <t>ctl00_MainContent_tbCntr_tbAutRqsn_chkAutoReq</t>
-  </si>
-  <si>
-    <t>1)Click on CheckBox Create Automatic</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CheckBox Create Automati should be clicked</t>
   </si>
   <si>
@@ -1555,9 +1519,6 @@
     <t>Select dd_Rank</t>
   </si>
   <si>
-    <t>PurchaseConfiSetting</t>
-  </si>
-  <si>
     <t>PurchaseMandatory</t>
   </si>
   <si>
@@ -1588,15 +1549,6 @@
     <t xml:space="preserve"> Department/Function Name tab should be open</t>
   </si>
   <si>
-    <t>InformationTech</t>
-  </si>
-  <si>
-    <t>1)Type Value</t>
-  </si>
-  <si>
-    <t>Value_Ctrl</t>
-  </si>
-  <si>
     <t>ctl00_MainContent_cmbReqsnType</t>
   </si>
   <si>
@@ -1606,9 +1558,6 @@
     <t>Requisition Type dropdownlist should be open</t>
   </si>
   <si>
-    <t>Stores</t>
-  </si>
-  <si>
     <t>ctl00_MainContent_txt_Func_SName</t>
   </si>
   <si>
@@ -1639,12 +1588,6 @@
     <t>1) Click on Short  Department/Function Name</t>
   </si>
   <si>
-    <t>ITTech</t>
-  </si>
-  <si>
-    <t>1)Type Valye</t>
-  </si>
-  <si>
     <t>1)Click on Refresh</t>
   </si>
   <si>
@@ -1720,9 +1663,6 @@
     <t>ctl00_MainContent_TxtCatName</t>
   </si>
   <si>
-    <t>JibeCategory</t>
-  </si>
-  <si>
     <t>ctl00_MainContent_ddlcatType</t>
   </si>
   <si>
@@ -1754,13 +1694,511 @@
   </si>
   <si>
     <t xml:space="preserve"> Enter Txt_CategoryShortCode</t>
+  </si>
+  <si>
+    <t>PurchaseConfigSetting</t>
+  </si>
+  <si>
+    <t>1)Click on Requsition Type(SSML PO)</t>
+  </si>
+  <si>
+    <t>Click on search Button</t>
+  </si>
+  <si>
+    <t>Click on Deleye Button</t>
+  </si>
+  <si>
+    <t>Click on Resfresh Button</t>
+  </si>
+  <si>
+    <t>Click on Delete  Button</t>
+  </si>
+  <si>
+    <t>LO Testing Lab List</t>
+  </si>
+  <si>
+    <t>http://192.168.1.102/JIBE/Operations/LOAnalysis/LOTestingLabs.aspx</t>
+  </si>
+  <si>
+    <t>TestingLabList</t>
+  </si>
+  <si>
+    <t>AddNewLab</t>
+  </si>
+  <si>
+    <t>Click on Add icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type txt_Lab Name </t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_txtLabName</t>
+  </si>
+  <si>
+    <t>Click on Save button</t>
+  </si>
+  <si>
+    <t>Type txt_Address</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_txtAddress</t>
+  </si>
+  <si>
+    <t>Type txt_Email</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_txtEmail</t>
+  </si>
+  <si>
+    <t>Type number_Phone</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_txtPhone</t>
+  </si>
+  <si>
+    <t>Select dd_Country</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlAddCountry</t>
+  </si>
+  <si>
+    <t>Click on Refresh button</t>
+  </si>
+  <si>
+    <t>Verify Newly Added Lab Name</t>
+  </si>
+  <si>
+    <t>Type txt_Code/Desc</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_txtfilter</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlSearchCountry</t>
+  </si>
+  <si>
+    <t>Click on Search</t>
+  </si>
+  <si>
+    <t>EditLab</t>
+  </si>
+  <si>
+    <t>Click on edit</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_GridView_Labs_ctl02_ImgUpdate</t>
+  </si>
+  <si>
+    <t>Clear txt_Address</t>
+  </si>
+  <si>
+    <t>DeleteLab</t>
+  </si>
+  <si>
+    <t>Click on Delete icon</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_GridView_Labs_ctl02_ImgDelete</t>
+  </si>
+  <si>
+    <t>Click on Export to Excel</t>
+  </si>
+  <si>
+    <t>.//*[@id='ctl00_MainContent_GridView_Labs']/tbody/tr/td</t>
+  </si>
+  <si>
+    <t>Click on Record Text</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>http://192.168.1.102/JIBE/purchase/Location.aspx</t>
+  </si>
+  <si>
+    <t>AddNewLocation</t>
+  </si>
+  <si>
+    <t>Type txt_Short Code</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_TxtShotCode</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_btnSaveLocation</t>
+  </si>
+  <si>
+    <t>Type txt_Short Description</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_txtShortDesc</t>
+  </si>
+  <si>
+    <t>Type txt_Long Description</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_txtLongDesc</t>
+  </si>
+  <si>
+    <t>Clear txt_No. of Location</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_txtNoLoc</t>
+  </si>
+  <si>
+    <t>Type txt_No. of Location</t>
+  </si>
+  <si>
+    <t>Select dd_Vessel Type</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlvessel_AddType</t>
+  </si>
+  <si>
+    <t>EditLocation</t>
+  </si>
+  <si>
+    <t>Type txt_Short Code/Desc.</t>
+  </si>
+  <si>
+    <t>Click on Edit Button</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_rgdLocation_ctl02_ImgUpdate</t>
+  </si>
+  <si>
+    <t>Clear txt_Short Description</t>
+  </si>
+  <si>
+    <t>DeleteLocation</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_rgdLocation_ctl02_ImgDelete</t>
+  </si>
+  <si>
+    <t>.//*[@id='ctl00_MainContent_rgdLocation']/tbody/tr/td</t>
+  </si>
+  <si>
+    <t>closePopupbutton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enter Txt_Item Category Name</t>
+  </si>
+  <si>
+    <t>Click on CheckBox Spare</t>
+  </si>
+  <si>
+    <t>1)Click on Supplier Type</t>
+  </si>
+  <si>
+    <t>Click on Supplier Type</t>
+  </si>
+  <si>
+    <t>Click on checkbox button owner</t>
+  </si>
+  <si>
+    <t>Click on checkbox button Broker</t>
+  </si>
+  <si>
+    <t>Click on Radio button Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Radio button DelvryDate </t>
+  </si>
+  <si>
+    <t>Click on Radio button vessel movement Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Radio button Item Category </t>
+  </si>
+  <si>
+    <t>Click on Perchase Mandatory Setting</t>
+  </si>
+  <si>
+    <t>CheckBox VesselMovement</t>
+  </si>
+  <si>
+    <t>CheckBox Delivery Date</t>
+  </si>
+  <si>
+    <t>Click on Update</t>
+  </si>
+  <si>
+    <t>Click on Add Rank</t>
+  </si>
+  <si>
+    <t>Click on AutomaticRequisition</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_tbCntr_tbAutRqsn_chkSuppConf</t>
+  </si>
+  <si>
+    <t>1)Click on CheckBox  Delivery Update</t>
+  </si>
+  <si>
+    <t>Click on CheckBox Delivery Update</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_tbCntr_TbConfigSetting_gvPOConfig_ctl19_lnkBtn_Reqsn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Items  Min-Max Quantity </t>
+  </si>
+  <si>
+    <t>http://192.168.1.102/JIBE/purchase/PURC_Items_Quantity_List.aspx</t>
+  </si>
+  <si>
+    <t>MinMaxQuantityURL</t>
+  </si>
+  <si>
+    <t>CatalogueItem</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_DDLFleet_imgCollapseExpandDDL</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_DDLFleet_CheckBoxListItems_1</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_DDLFleet_btnApplyFilter</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_DDLVessel_imgCollapseExpandDDL</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_DDLVessel_CheckBoxListItems_1</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_DDLVessel_btnApplyFilter</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_btnSearch</t>
+  </si>
+  <si>
+    <t>Click on EDit</t>
+  </si>
+  <si>
+    <t>Clear Effect Date</t>
+  </si>
+  <si>
+    <t>Type txr_Effect Date</t>
+  </si>
+  <si>
+    <t>Clear Min Qty</t>
+  </si>
+  <si>
+    <t>Type txt_Min Qty</t>
+  </si>
+  <si>
+    <t>Clear Max Qty</t>
+  </si>
+  <si>
+    <t>Type txt_Max Qty</t>
+  </si>
+  <si>
+    <t>.//*[@id='ctl00_MainContent_gvPurcItems_ctl02_imgRecordInfo']</t>
+  </si>
+  <si>
+    <t>.//*[@id='__divMsgTooltip_Fixed']/tr[1]/td[2]/div/img</t>
+  </si>
+  <si>
+    <t>Click on Close</t>
+  </si>
+  <si>
+    <t>Click on Verify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Certificate Inspection </t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_gvPurcItems_ctl02_imgEdit</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_txtNewEffDate</t>
+  </si>
+  <si>
+    <t>txtNewMinQty</t>
+  </si>
+  <si>
+    <t>txtNewMaxQty</t>
+  </si>
+  <si>
+    <t>.//*[@id='dvChangeMinmaxQty_M']/table/tbody/tr[4]/td/img[1]</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_rbtnDeptType_1</t>
+  </si>
+  <si>
+    <t>Click on Department Type radio Button</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlDepartment</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlCatalogue</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlSubCatalogue</t>
+  </si>
+  <si>
+    <t>.//*[@id='ctl00_MainContent_gvPurcItems']/tbody/tr/td</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_btnExport</t>
+  </si>
+  <si>
+    <t>Select dd_Department</t>
+  </si>
+  <si>
+    <t>Select dd_Catalogue</t>
+  </si>
+  <si>
+    <t>Select dd_SubCatalogue</t>
+  </si>
+  <si>
+    <t>Select dd_Fleet</t>
+  </si>
+  <si>
+    <t>Select dd_Fleet-B</t>
+  </si>
+  <si>
+    <t>Click on Ok</t>
+  </si>
+  <si>
+    <t>Select dd_Vessel</t>
+  </si>
+  <si>
+    <t>Select dd_Imara</t>
+  </si>
+  <si>
+    <t>Click on Export to  Excel</t>
+  </si>
+  <si>
+    <t>ImageClick_Ctrl</t>
+  </si>
+  <si>
+    <t>http://192.168.1.102/JIBE/Purchase/Purchase_Questionnaire.aspx</t>
+  </si>
+  <si>
+    <t>AddNewQuestion</t>
+  </si>
+  <si>
+    <t>Click on Add New Question</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_lnkAddNewQuestion</t>
+  </si>
+  <si>
+    <t>Click on Save And Close button</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_btnSaveAndClose</t>
+  </si>
+  <si>
+    <t>Type txt_Question</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_txtQuestion</t>
+  </si>
+  <si>
+    <t>Select dd_Requisition Type</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlCatName</t>
+  </si>
+  <si>
+    <t>Select dd_Grading Type</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlGradingType</t>
+  </si>
+  <si>
+    <t>Verify Added Question</t>
+  </si>
+  <si>
+    <t>Type txt_ Search</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Record </t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_grdQuestion_ctl02_lblQuestion</t>
+  </si>
+  <si>
+    <t>DeleteNewQuestion</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_grdQuestion_ctl02_LinkButton1del</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_grdQuestion</t>
+  </si>
+  <si>
+    <t>Verify Deleted Question</t>
+  </si>
+  <si>
+    <t>Clear txt_ Search</t>
+  </si>
+  <si>
+    <t>AddNewGrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Add New Grade </t>
+  </si>
+  <si>
+    <t>lnkAddNewGrade</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_btnSaveAndCloseGrade</t>
+  </si>
+  <si>
+    <t>Type txt_Grade</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_txtGrade</t>
+  </si>
+  <si>
+    <t>Click on Grading Type</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_rdoGradeType_0</t>
+  </si>
+  <si>
+    <t>Select dd_Min Point</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlMin</t>
+  </si>
+  <si>
+    <t>Select dd_Max Point</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlMax</t>
+  </si>
+  <si>
+    <t>Select dd_No of Options</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlDivisions</t>
+  </si>
+  <si>
+    <t>DeleteAddedNewGrade</t>
+  </si>
+  <si>
+    <t>ctl00$MainContent$grdGrading$ctl14$LinkButton1del</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1815,21 +2253,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1874,11 +2320,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1943,14 +2384,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
@@ -1999,14 +2439,8 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2022,9 +2456,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2043,31 +2474,45 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Good" xfId="4" builtinId="26"/>
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2101,11 +2546,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K206" totalsRowShown="0">
-  <autoFilter ref="A1:K206"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K283" totalsRowShown="0">
+  <autoFilter ref="A1:K283"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Field Labels"/>
-    <tableColumn id="2" name="Element Locating Type"/>
+    <tableColumn id="2" name="Element Locating Type" dataDxfId="0"/>
     <tableColumn id="3" name="Element Locating Value"/>
     <tableColumn id="4" name="Remarks"/>
     <tableColumn id="5" name="AUTOMATION SCRIPTS"/>
@@ -2385,8 +2830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K156"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="B166" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6916,10 +7361,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K163"/>
+  <dimension ref="A1:K286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E149" sqref="E149"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6974,8 +7419,8 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="30" t="s">
         <v>373</v>
       </c>
       <c r="D2" s="17"/>
@@ -6989,12 +7434,12 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="B3" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="35" t="s">
         <v>374</v>
       </c>
       <c r="D3" s="12"/>
@@ -7004,7 +7449,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>166</v>
@@ -7012,10 +7457,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
+        <v>430</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -7027,20 +7472,20 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="B5" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="D5" s="12" t="s">
         <v>377</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>378</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>7</v>
@@ -7048,7 +7493,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>8</v>
@@ -7056,20 +7501,20 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C6" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>381</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>382</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>7</v>
@@ -7077,7 +7522,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>14</v>
@@ -7085,20 +7530,20 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C7" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>384</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>385</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>7</v>
@@ -7106,7 +7551,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>10</v>
@@ -7114,20 +7559,20 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C8" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>381</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>382</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>7</v>
@@ -7135,7 +7580,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>14</v>
@@ -7143,28 +7588,28 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>399</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C9" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>387</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>388</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>389</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>390</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>10</v>
@@ -7172,20 +7617,20 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C10" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>381</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>382</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>7</v>
@@ -7193,7 +7638,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>8</v>
@@ -7201,20 +7646,20 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C11" s="35" t="s">
+      <c r="D11" s="12" t="s">
         <v>393</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>394</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>7</v>
@@ -7222,7 +7667,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>8</v>
@@ -7232,18 +7677,18 @@
       <c r="A12" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>376</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="D12" s="9" t="s">
         <v>377</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>378</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>7</v>
@@ -7251,7 +7696,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>8</v>
@@ -7259,20 +7704,20 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C13" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>384</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>385</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>7</v>
@@ -7280,7 +7725,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>10</v>
@@ -7288,20 +7733,20 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>399</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C14" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>387</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>388</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>7</v>
@@ -7309,7 +7754,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>10</v>
@@ -7317,20 +7762,20 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C15" s="35" t="s">
+      <c r="D15" s="12" t="s">
         <v>381</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>382</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>7</v>
@@ -7338,83 +7783,87 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+    </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>432</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>391</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="C18" s="39" t="s">
+      <c r="D18" t="s">
         <v>393</v>
       </c>
-      <c r="D18" t="s">
-        <v>394</v>
-      </c>
       <c r="F18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J18" t="s">
-        <v>432</v>
-      </c>
-      <c r="K18" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="K18" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>413</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="C19" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="D19" t="s">
         <v>401</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>402</v>
       </c>
-      <c r="F19" t="s">
-        <v>403</v>
-      </c>
       <c r="J19" t="s">
-        <v>432</v>
-      </c>
-      <c r="K19" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="K19" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>401</v>
+        <v>397</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>400</v>
       </c>
       <c r="D20" t="s">
+        <v>403</v>
+      </c>
+      <c r="F20" t="s">
         <v>404</v>
       </c>
-      <c r="F20" t="s">
-        <v>405</v>
-      </c>
       <c r="J20" t="s">
-        <v>432</v>
-      </c>
-      <c r="K20" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="K20" s="37" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7422,191 +7871,194 @@
       <c r="A21" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="C21" s="39" t="s">
+      <c r="B21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="D21" t="s">
         <v>406</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>407</v>
       </c>
-      <c r="F21" t="s">
-        <v>408</v>
-      </c>
       <c r="J21" t="s">
-        <v>432</v>
-      </c>
-      <c r="K21" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="K21" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>408</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>409</v>
       </c>
-      <c r="B22" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="C22" s="39" t="s">
+      <c r="D22" t="s">
         <v>410</v>
       </c>
-      <c r="D22" t="s">
-        <v>411</v>
-      </c>
       <c r="F22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J22" t="s">
-        <v>432</v>
-      </c>
-      <c r="K22" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="K22" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>414</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="C23" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="D23" t="s">
         <v>387</v>
       </c>
-      <c r="D23" t="s">
-        <v>388</v>
-      </c>
       <c r="F23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J23" t="s">
-        <v>432</v>
-      </c>
-      <c r="K23" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="K23" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>399</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="C24" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="D24" t="s">
         <v>387</v>
       </c>
-      <c r="D24" t="s">
-        <v>388</v>
-      </c>
       <c r="F24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J24" t="s">
-        <v>432</v>
-      </c>
-      <c r="K24" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="K24" s="37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>379</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="B25" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="C25" s="39" t="s">
+      <c r="D25" t="s">
         <v>381</v>
       </c>
-      <c r="D25" t="s">
-        <v>382</v>
-      </c>
       <c r="F25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J25" t="s">
-        <v>432</v>
-      </c>
-      <c r="K25" s="40" t="s">
-        <v>8</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="K25" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="K27" s="40"/>
+        <v>432</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="36"/>
+      <c r="K27" s="37"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>391</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="B28" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="C28" s="39" t="s">
+      <c r="D28" t="s">
         <v>393</v>
       </c>
-      <c r="D28" t="s">
-        <v>394</v>
-      </c>
       <c r="F28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J28" t="s">
-        <v>433</v>
-      </c>
-      <c r="K28" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="K28" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>413</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="C29" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="D29" t="s">
         <v>401</v>
       </c>
-      <c r="D29" t="s">
-        <v>402</v>
-      </c>
       <c r="F29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J29" t="s">
-        <v>433</v>
-      </c>
-      <c r="K29" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="K29" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>401</v>
+        <v>397</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>400</v>
       </c>
       <c r="D30" t="s">
+        <v>415</v>
+      </c>
+      <c r="F30" t="s">
         <v>416</v>
       </c>
-      <c r="F30" t="s">
-        <v>417</v>
-      </c>
       <c r="J30" t="s">
-        <v>433</v>
-      </c>
-      <c r="K30" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="K30" s="37" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7614,91 +8066,91 @@
       <c r="A31" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="C31" s="39" t="s">
+      <c r="B31" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="D31" t="s">
         <v>406</v>
       </c>
-      <c r="D31" t="s">
-        <v>407</v>
-      </c>
       <c r="F31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J31" t="s">
-        <v>433</v>
-      </c>
-      <c r="K31" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="K31" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>418</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="B32" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="C32" s="39" t="s">
+      <c r="D32" t="s">
         <v>420</v>
       </c>
-      <c r="D32" t="s">
-        <v>421</v>
-      </c>
       <c r="F32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J32" t="s">
-        <v>433</v>
-      </c>
-      <c r="K32" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="K32" s="37" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>391</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="B33" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="C33" s="39" t="s">
+      <c r="D33" t="s">
         <v>393</v>
       </c>
-      <c r="D33" t="s">
-        <v>394</v>
-      </c>
       <c r="F33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J33" t="s">
-        <v>433</v>
-      </c>
-      <c r="K33" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="K33" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>399</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="C34" s="39" t="s">
-        <v>401</v>
+        <v>398</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>400</v>
       </c>
       <c r="D34" t="s">
+        <v>415</v>
+      </c>
+      <c r="F34" t="s">
         <v>416</v>
       </c>
-      <c r="F34" t="s">
-        <v>417</v>
-      </c>
       <c r="J34" t="s">
-        <v>433</v>
-      </c>
-      <c r="K34" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="K34" s="37" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7706,89 +8158,95 @@
       <c r="A35" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="C35" s="39" t="s">
+      <c r="B35" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="D35" t="s">
         <v>406</v>
       </c>
-      <c r="D35" t="s">
-        <v>407</v>
-      </c>
       <c r="F35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J35" t="s">
-        <v>433</v>
-      </c>
-      <c r="K35" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="K35" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>422</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="C36" s="36" t="s">
         <v>424</v>
       </c>
-      <c r="C36" s="39" t="s">
-        <v>425</v>
-      </c>
       <c r="J36" t="s">
-        <v>433</v>
-      </c>
-      <c r="K36" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="K36" s="37" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>425</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="B37" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="C37" s="39" t="s">
+      <c r="D37" t="s">
         <v>427</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>428</v>
       </c>
-      <c r="F37" t="s">
-        <v>429</v>
-      </c>
       <c r="J37" t="s">
-        <v>433</v>
-      </c>
-      <c r="K37" s="40" t="s">
-        <v>8</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="K37" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31" t="s">
-        <v>506</v>
-      </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="43"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="40"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="B41" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="B41" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="44" t="s">
-        <v>434</v>
+      <c r="C41" s="41" t="s">
+        <v>433</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -7797,7 +8255,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="K41" s="11" t="s">
         <v>166</v>
@@ -7805,10 +8263,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="35"/>
+        <v>556</v>
+      </c>
+      <c r="B42" s="49"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
@@ -7820,26 +8278,26 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>511</v>
+        <v>434</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" t="s">
+        <v>498</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>437</v>
+        <v>557</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9" t="s">
-        <v>435</v>
+        <v>556</v>
       </c>
       <c r="K43" s="11" t="s">
         <v>8</v>
@@ -7847,26 +8305,26 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>440</v>
+        <v>619</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>436</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="12" t="s">
-        <v>435</v>
+      <c r="J44" s="9" t="s">
+        <v>556</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>335</v>
@@ -7874,266 +8332,286 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>443</v>
+        <v>532</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" t="s">
+        <v>439</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9" t="s">
-        <v>435</v>
+        <v>556</v>
       </c>
       <c r="K45" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>446</v>
+      <c r="A46" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" t="s">
+        <v>442</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>447</v>
+        <v>620</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="12" t="s">
-        <v>435</v>
+      <c r="J46" s="9" t="s">
+        <v>556</v>
       </c>
       <c r="K46" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>449</v>
+      <c r="A47" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>444</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9" t="s">
-        <v>435</v>
+        <v>556</v>
       </c>
       <c r="K47" s="11" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>452</v>
+      <c r="A48" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>447</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
-      <c r="J48" s="12" t="s">
-        <v>435</v>
+      <c r="J48" s="9" t="s">
+        <v>556</v>
       </c>
       <c r="K48" s="8" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>443</v>
+      <c r="A49" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B49" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
+        <v>439</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9" t="s">
-        <v>435</v>
+        <v>556</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>456</v>
+      <c r="A50" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" t="s">
+        <v>451</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="12" t="s">
-        <v>435</v>
+      <c r="J50" s="9" t="s">
+        <v>556</v>
       </c>
       <c r="K50" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>458</v>
+      <c r="A51" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" t="s">
+        <v>453</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9" t="s">
-        <v>435</v>
+        <v>556</v>
       </c>
       <c r="K51" s="11" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>461</v>
+      <c r="A52" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" t="s">
+        <v>456</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
-      <c r="J52" s="12" t="s">
-        <v>435</v>
+      <c r="J52" s="9" t="s">
+        <v>556</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>464</v>
+      <c r="A53" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>459</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9" t="s">
-        <v>435</v>
+        <v>556</v>
       </c>
       <c r="K53" s="11" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>467</v>
+      <c r="A54" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" t="s">
+        <v>462</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
-      <c r="J54" s="12" t="s">
-        <v>435</v>
+      <c r="J54" s="9" t="s">
+        <v>556</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>470</v>
+      <c r="A55" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B55" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
+        <v>465</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -8141,72 +8619,88 @@
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9" t="s">
-        <v>435</v>
+        <v>556</v>
       </c>
       <c r="K55" s="11" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>472</v>
+      <c r="A56" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B56" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" t="s">
+        <v>467</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
-      <c r="J56" s="12" t="s">
-        <v>435</v>
+      <c r="J56" s="9" t="s">
+        <v>556</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="9"/>
+      <c r="A57" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" t="s">
+        <v>637</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>557</v>
+      </c>
       <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="11"/>
+      <c r="F57" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="12" t="s">
-        <v>474</v>
+      <c r="A58" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" t="s">
+        <v>436</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
-      <c r="J58" s="12" t="s">
-        <v>473</v>
+      <c r="J58" s="9" t="s">
+        <v>556</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>8</v>
@@ -8214,865 +8708,935 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B59" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="34" t="s">
         <v>439</v>
       </c>
-      <c r="B59" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>477</v>
-      </c>
       <c r="D59" s="9" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9" t="s">
-        <v>473</v>
+        <v>556</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>335</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>335</v>
-      </c>
+      <c r="A60" s="47"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="11"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>485</v>
-      </c>
+      <c r="A61" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="B61" s="50"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="9" t="s">
-        <v>383</v>
-      </c>
+      <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="K61" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="J61" s="9"/>
+      <c r="K61" s="11"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="12"/>
+      <c r="A62" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="B62" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>469</v>
+      </c>
       <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
+      <c r="F62" s="12" t="s">
+        <v>470</v>
+      </c>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="8"/>
+      <c r="J62" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="9"/>
+      <c r="A63" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B63" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>472</v>
+      </c>
       <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
+      <c r="F63" s="9" t="s">
+        <v>473</v>
+      </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="11"/>
+      <c r="J63" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="B64" s="32"/>
+      <c r="A64" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="B64" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="C64" s="12" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>475</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
       <c r="J64" s="12" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="33" t="s">
-        <v>376</v>
+      <c r="A65" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="B65" s="50" t="s">
+        <v>122</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
-      <c r="J65" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="K65" s="11" t="s">
+      <c r="J65" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="K65" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>508</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>493</v>
-      </c>
+      <c r="A66" s="7"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="12"/>
       <c r="E66" s="12"/>
-      <c r="F66" s="12" t="s">
-        <v>494</v>
-      </c>
+      <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
-      <c r="J66" s="12" t="s">
+      <c r="J66" s="12"/>
+      <c r="K66" s="8"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="B67" s="50"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="11"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B68" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="B69" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" t="s">
+        <v>482</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>496</v>
+      </c>
+      <c r="B70" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" t="s">
+        <v>484</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="K66" s="8" t="s">
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="K70" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="K67" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="B68" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="K68" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="8"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="B70" s="33"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="11"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="12" t="s">
-        <v>499</v>
+        <v>632</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" t="s">
+        <v>482</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="12" t="s">
-        <v>501</v>
+        <v>382</v>
       </c>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
       <c r="J71" s="12" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="B72" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>502</v>
+        <v>561</v>
+      </c>
+      <c r="B72" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" t="s">
+        <v>487</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>503</v>
+        <v>420</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9" t="s">
-        <v>504</v>
+        <v>382</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
-      <c r="J72" s="9" t="s">
-        <v>497</v>
+      <c r="J72" s="12" t="s">
+        <v>479</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>335</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>444</v>
-      </c>
+      <c r="A73" s="7"/>
+      <c r="B73" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="33"/>
+      <c r="D73" s="12"/>
       <c r="E73" s="12"/>
-      <c r="F73" s="12" t="s">
-        <v>383</v>
-      </c>
+      <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
-      <c r="J73" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="K73" s="8" t="s">
+      <c r="J73" s="12"/>
+      <c r="K73" s="8"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="B74" s="50"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="11"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="B76" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B77" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="K77" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="31" t="s">
-        <v>512</v>
-      </c>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="48"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="11"/>
-    </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="B78" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C78" s="37" t="s">
-        <v>555</v>
-      </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="K78" s="8" t="s">
-        <v>166</v>
+      <c r="B78" s="50" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="11"/>
+      <c r="B79" s="50" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="B80" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>377</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="K80" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A80" s="42"/>
+      <c r="B80" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="44"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="B81" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C81" s="36" t="s">
-        <v>516</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>444</v>
-      </c>
+      <c r="A81" s="6"/>
+      <c r="B81" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="34"/>
+      <c r="D81" s="9"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="9" t="s">
-        <v>383</v>
-      </c>
+      <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
-      <c r="J81" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="K81" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="J81" s="9"/>
+      <c r="K81" s="11"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="B82" s="32" t="s">
-        <v>376</v>
+      <c r="A82" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="B82" s="50" t="s">
+        <v>122</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>517</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>518</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="D82" s="12"/>
       <c r="E82" s="12"/>
-      <c r="F82" s="12" t="s">
-        <v>519</v>
-      </c>
+      <c r="F82" s="12"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
       <c r="J82" s="12" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="49"/>
+      <c r="A83" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="B83" s="50"/>
+      <c r="C83" s="34"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
-      <c r="J83" s="12"/>
+      <c r="J83" s="9"/>
       <c r="K83" s="11"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="B84" s="32" t="s">
+      <c r="A84" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B84" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="C84" s="35" t="s">
-        <v>523</v>
-      </c>
       <c r="D84" s="12" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="12" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
       <c r="J84" s="12" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="9"/>
+      <c r="A85" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B85" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>440</v>
+      </c>
       <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
+      <c r="F85" s="9" t="s">
+        <v>382</v>
+      </c>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="11"/>
+      <c r="J85" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="B86" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C86" s="35" t="s">
-        <v>516</v>
+      <c r="A86" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B86" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>504</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="12" t="s">
-        <v>383</v>
+        <v>506</v>
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
       <c r="J86" s="12" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="B87" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C87" s="36" t="s">
-        <v>527</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
+      <c r="A87" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B87" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
       <c r="J87" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="K87" s="11" t="s">
-        <v>10</v>
+        <v>500</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="12"/>
+      <c r="A88" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B88" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>440</v>
+      </c>
       <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
+      <c r="F88" s="12" t="s">
+        <v>382</v>
+      </c>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="8"/>
+      <c r="J88" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="B89" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C89" s="36" t="s">
-        <v>516</v>
+      <c r="A89" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B89" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="34" t="s">
+        <v>510</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="9" t="s">
-        <v>383</v>
+        <v>506</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
       <c r="J89" s="12" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="K89" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="B90" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C90" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="B90" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="D91" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="D90" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12" t="s">
+      <c r="E91" s="12"/>
+      <c r="F91" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B92" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="K90" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="B91" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C91" s="36" t="s">
-        <v>529</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="K91" s="11" t="s">
+      <c r="E92" s="9"/>
+      <c r="F92" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="K92" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="8"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="B93" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C93" s="36" t="s">
         <v>531</v>
       </c>
+      <c r="B93" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" s="34" t="s">
+        <v>514</v>
+      </c>
       <c r="D93" s="9" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="9" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
       <c r="J93" s="12" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="K93" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="49"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="8"/>
+      <c r="A94" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B94" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C94" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="B95" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C95" s="36" t="s">
-        <v>406</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9" t="s">
+      <c r="A95" s="7"/>
+      <c r="B95" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" s="33"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="8"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="B96" s="50"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="11"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B97" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B98" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B99" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="K95" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="8"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="B97" s="33"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="11"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="B98" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C98" s="35" t="s">
-        <v>534</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="K98" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="B99" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C99" s="36" t="s">
-        <v>527</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="K99" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="B100" s="32"/>
-      <c r="C100" s="35" t="s">
-        <v>527</v>
+      <c r="B100" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>503</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>536</v>
+        <v>440</v>
       </c>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
@@ -9080,20 +9644,24 @@
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
       <c r="J100" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="K100" s="8" t="s">
-        <v>10</v>
+        <v>516</v>
+      </c>
+      <c r="K100" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="49" t="s">
-        <v>537</v>
+      <c r="A101" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B101" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>392</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
@@ -9101,20 +9669,24 @@
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
       <c r="J101" s="12" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="K101" s="11" t="s">
-        <v>522</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="35" t="s">
-        <v>516</v>
+      <c r="A102" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B102" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>512</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>444</v>
+        <v>521</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
@@ -9122,43 +9694,49 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
       <c r="J102" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="K102" s="11" t="s">
-        <v>14</v>
+        <v>516</v>
+      </c>
+      <c r="K102" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
+      <c r="A103" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B103" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
       <c r="J103" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="K103" s="11" t="s">
-        <v>8</v>
+        <v>516</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="B104" s="32"/>
-      <c r="C104" s="35" t="s">
-        <v>529</v>
+        <v>558</v>
+      </c>
+      <c r="B104" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>405</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>540</v>
+        <v>406</v>
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
@@ -9166,134 +9744,154 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
       <c r="J104" s="12" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="49" t="s">
-        <v>520</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>538</v>
-      </c>
+      <c r="B105" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" s="34"/>
+      <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
-      <c r="J105" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="K105" s="11" t="s">
-        <v>522</v>
-      </c>
+      <c r="J105" s="9"/>
+      <c r="K105" s="11"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="B106" s="32"/>
-      <c r="C106" s="35" t="s">
-        <v>531</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>541</v>
-      </c>
+      <c r="A106" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="B106" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" s="33"/>
+      <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
-      <c r="J106" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="K106" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="J106" s="12"/>
+      <c r="K106" s="8"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="49" t="s">
-        <v>526</v>
+      <c r="A107" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="B107" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" s="34" t="s">
+        <v>524</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>538</v>
+        <v>420</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="12" t="s">
-        <v>533</v>
+      <c r="J107" s="9" t="s">
+        <v>523</v>
       </c>
       <c r="K107" s="11" t="s">
-        <v>522</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="7"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="35" t="s">
-        <v>406</v>
+      <c r="A108" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B108" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>392</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>407</v>
+        <v>520</v>
       </c>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
-      <c r="J108" s="12" t="s">
-        <v>533</v>
+      <c r="J108" s="9" t="s">
+        <v>523</v>
       </c>
       <c r="K108" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="6"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="9"/>
+      <c r="A109" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B109" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>525</v>
+      </c>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="11"/>
+      <c r="J109" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="K109" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="B110" s="32"/>
-      <c r="C110" s="35"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="8"/>
+      <c r="A110" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B110" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="36" t="s">
-        <v>543</v>
+      <c r="B111" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" s="34" t="s">
+        <v>405</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
@@ -9301,20 +9899,22 @@
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
       <c r="J111" s="9" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="K111" s="11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
-      <c r="B112" s="32"/>
-      <c r="C112" s="35" t="s">
-        <v>393</v>
+      <c r="B112" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" s="33" t="s">
+        <v>527</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
@@ -9322,22 +9922,22 @@
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
       <c r="J112" s="9" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="B113" s="33"/>
-      <c r="C113" s="36" t="s">
+      <c r="A113" s="6"/>
+      <c r="B113" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>544</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
@@ -9345,520 +9945,2276 @@
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
       <c r="J113" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="K113" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B114" s="50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B115" s="50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="45"/>
+      <c r="B116" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116" s="46" t="s">
+        <v>540</v>
+      </c>
+      <c r="D116" s="45"/>
+      <c r="E116" s="45"/>
+      <c r="F116" s="45"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="45"/>
+      <c r="I116" s="45"/>
+      <c r="J116" s="45"/>
+      <c r="K116" s="45"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B117" s="50"/>
+      <c r="C117" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="K113" s="11" t="s">
+      <c r="J117" t="s">
+        <v>541</v>
+      </c>
+      <c r="K117" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B118" s="50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B119" s="50"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B120" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" t="s">
+        <v>376</v>
+      </c>
+      <c r="J120" t="s">
+        <v>543</v>
+      </c>
+      <c r="K120" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B121" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" t="s">
+        <v>503</v>
+      </c>
+      <c r="J121" t="s">
+        <v>543</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B122" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" t="s">
+        <v>544</v>
+      </c>
+      <c r="J122" t="s">
+        <v>543</v>
+      </c>
+      <c r="K122" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="7"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="50" t="s">
-        <v>520</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="K114" s="8" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="B115" s="33"/>
-      <c r="C115" s="36" t="s">
-        <v>531</v>
-      </c>
-      <c r="D115" s="9" t="s">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B123" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>503</v>
+      </c>
+      <c r="J123" t="s">
+        <v>543</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>552</v>
+      </c>
+      <c r="B124" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" t="s">
         <v>545</v>
       </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="K115" s="11" t="s">
+      <c r="J124" t="s">
+        <v>543</v>
+      </c>
+      <c r="K124" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="7"/>
-      <c r="B116" s="32"/>
-      <c r="C116" s="50" t="s">
-        <v>526</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="K116" s="8" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="6"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="36" t="s">
-        <v>406</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="K117" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="7"/>
-      <c r="B118" s="32"/>
-      <c r="C118" s="35" t="s">
-        <v>546</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="K118" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="K119" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="51"/>
-      <c r="B122" s="51"/>
-      <c r="C122" s="52" t="s">
-        <v>559</v>
-      </c>
-      <c r="D122" s="51"/>
-      <c r="E122" s="51"/>
-      <c r="F122" s="51"/>
-      <c r="G122" s="51"/>
-      <c r="H122" s="51"/>
-      <c r="I122" s="51"/>
-      <c r="J122" s="51"/>
-      <c r="K122" s="51"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="J123" t="s">
-        <v>560</v>
-      </c>
-      <c r="K123" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>562</v>
+      <c r="B125" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C125" t="s">
+        <v>503</v>
+      </c>
+      <c r="J125" t="s">
+        <v>543</v>
+      </c>
+      <c r="K125" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>555</v>
+      </c>
+      <c r="B126" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="C126" t="s">
-        <v>377</v>
+        <v>554</v>
       </c>
       <c r="J126" t="s">
-        <v>562</v>
-      </c>
-      <c r="K126" s="8" t="s">
-        <v>8</v>
+        <v>543</v>
+      </c>
+      <c r="K126" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B127" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="C127" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="J127" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="K127" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="C128" t="s">
-        <v>563</v>
-      </c>
-      <c r="J128" t="s">
-        <v>562</v>
-      </c>
-      <c r="K128" s="11" t="s">
+      <c r="B128" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="K128" s="8"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B129" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C129" t="s">
+        <v>392</v>
+      </c>
+      <c r="J129" t="s">
+        <v>543</v>
+      </c>
+      <c r="K129" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>618</v>
+      </c>
+      <c r="B130" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C130" t="s">
+        <v>512</v>
+      </c>
+      <c r="J130" t="s">
+        <v>543</v>
+      </c>
+      <c r="K130" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C129" s="53"/>
-      <c r="K129" s="8"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C130" t="s">
-        <v>516</v>
-      </c>
-      <c r="J130" t="s">
-        <v>562</v>
-      </c>
-      <c r="K130" s="11" t="s">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B131" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C131" t="s">
+        <v>405</v>
+      </c>
+      <c r="J131" t="s">
+        <v>543</v>
+      </c>
+      <c r="K131" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B132" s="50"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B133" s="50"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B134" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C134" t="s">
+        <v>547</v>
+      </c>
+      <c r="J134" t="s">
+        <v>546</v>
+      </c>
+      <c r="K134" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B135" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C135" t="s">
+        <v>544</v>
+      </c>
+      <c r="J135" t="s">
+        <v>546</v>
+      </c>
+      <c r="K135" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B136" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C136" t="s">
+        <v>544</v>
+      </c>
+      <c r="J136" t="s">
+        <v>546</v>
+      </c>
+      <c r="K136" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B137" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C137" t="s">
+        <v>503</v>
+      </c>
+      <c r="J137" t="s">
+        <v>546</v>
+      </c>
+      <c r="K137" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>572</v>
-      </c>
-      <c r="C131" t="s">
-        <v>565</v>
-      </c>
-      <c r="J131" t="s">
-        <v>562</v>
-      </c>
-      <c r="K131" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C132" s="53"/>
-      <c r="K132" s="8"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C133" t="s">
-        <v>516</v>
-      </c>
-      <c r="J133" t="s">
-        <v>562</v>
-      </c>
-      <c r="K133" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>575</v>
-      </c>
-      <c r="C134" t="s">
-        <v>574</v>
-      </c>
-      <c r="K134" s="11" t="s">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B138" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C138" t="s">
+        <v>392</v>
+      </c>
+      <c r="J138" t="s">
+        <v>546</v>
+      </c>
+      <c r="K138" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>553</v>
+      </c>
+      <c r="B139" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C139" t="s">
+        <v>512</v>
+      </c>
+      <c r="J139" t="s">
+        <v>546</v>
+      </c>
+      <c r="K139" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C135" s="53"/>
-      <c r="K135" s="11"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C136" t="s">
-        <v>516</v>
-      </c>
-      <c r="K136" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C137" t="s">
-        <v>393</v>
-      </c>
-      <c r="J137" t="s">
-        <v>562</v>
-      </c>
-      <c r="K137" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
-        <v>529</v>
-      </c>
-      <c r="J138" t="s">
-        <v>562</v>
-      </c>
-      <c r="K138" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C139" t="s">
-        <v>564</v>
-      </c>
-      <c r="J139" t="s">
-        <v>562</v>
-      </c>
-      <c r="K139" s="8" t="s">
-        <v>522</v>
-      </c>
-    </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B140" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="C140" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J140" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="K140" s="8" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B141" s="50"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>566</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="B142" s="50"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B143" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="C143" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="J143" t="s">
-        <v>566</v>
-      </c>
-      <c r="K143" s="8" t="s">
-        <v>8</v>
+        <v>548</v>
+      </c>
+      <c r="K143" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B144" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="C144" t="s">
-        <v>563</v>
+        <v>392</v>
       </c>
       <c r="J144" t="s">
-        <v>566</v>
-      </c>
-      <c r="K144" s="11" t="s">
-        <v>11</v>
+        <v>548</v>
+      </c>
+      <c r="K144" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
-        <v>571</v>
+      <c r="A145" t="s">
+        <v>553</v>
+      </c>
+      <c r="B145" s="50" t="s">
+        <v>122</v>
       </c>
       <c r="C145" t="s">
-        <v>563</v>
+        <v>512</v>
       </c>
       <c r="J145" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="K145" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C146" s="53"/>
-      <c r="K146" s="8"/>
+      <c r="B146" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C146" t="s">
+        <v>405</v>
+      </c>
+      <c r="J146" t="s">
+        <v>548</v>
+      </c>
+      <c r="K146" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B147" s="50" t="s">
+        <v>16</v>
+      </c>
       <c r="C147" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="J147" t="s">
-        <v>566</v>
-      </c>
-      <c r="K147" s="11" t="s">
-        <v>14</v>
+        <v>548</v>
+      </c>
+      <c r="K147" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B148" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="C148" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="J148" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="K148" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>573</v>
-      </c>
-      <c r="C149" t="s">
-        <v>529</v>
-      </c>
-      <c r="J149" t="s">
-        <v>566</v>
-      </c>
-      <c r="K149" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="B149" s="3"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C150" s="53"/>
-      <c r="K150" s="8"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C151" t="s">
-        <v>406</v>
-      </c>
-      <c r="J151" t="s">
-        <v>566</v>
-      </c>
-      <c r="K151" s="8" t="s">
-        <v>8</v>
+      <c r="B150" s="3"/>
+    </row>
+    <row r="151" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A151" s="45"/>
+      <c r="B151" s="51"/>
+      <c r="C151" s="55" t="s">
+        <v>562</v>
+      </c>
+      <c r="D151" s="45"/>
+      <c r="E151" s="45"/>
+      <c r="F151" s="45"/>
+      <c r="G151" s="45"/>
+      <c r="H151" s="45"/>
+      <c r="I151" s="45"/>
+      <c r="J151" s="45"/>
+      <c r="K151" s="45"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>368</v>
+      </c>
+      <c r="B152" s="50"/>
+      <c r="C152" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F152" s="11"/>
+      <c r="J152" t="s">
+        <v>564</v>
+      </c>
+      <c r="K152" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B153" s="3"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>566</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C154" t="s">
+        <v>376</v>
+      </c>
+      <c r="J154" t="s">
+        <v>565</v>
+      </c>
+      <c r="K154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>567</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C155" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C154" t="s">
-        <v>569</v>
-      </c>
-      <c r="J154" t="s">
-        <v>568</v>
-      </c>
-      <c r="K154" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C155" t="s">
-        <v>393</v>
-      </c>
       <c r="J155" t="s">
-        <v>568</v>
-      </c>
-      <c r="K155" s="8" t="s">
-        <v>8</v>
+        <v>565</v>
+      </c>
+      <c r="K155" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>569</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C156" t="s">
+        <v>380</v>
+      </c>
+      <c r="J156" t="s">
+        <v>565</v>
+      </c>
+      <c r="K156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>570</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C157" t="s">
+        <v>571</v>
+      </c>
+      <c r="J157" t="s">
+        <v>565</v>
+      </c>
+      <c r="K157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>572</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C158" t="s">
         <v>573</v>
       </c>
-      <c r="C156" t="s">
-        <v>529</v>
-      </c>
-      <c r="J156" t="s">
-        <v>568</v>
-      </c>
-      <c r="K156" s="11" t="s">
+      <c r="J158" t="s">
+        <v>565</v>
+      </c>
+      <c r="K158" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C157" s="53"/>
-      <c r="K157" s="8"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C158" t="s">
-        <v>406</v>
-      </c>
-      <c r="J158" t="s">
-        <v>568</v>
-      </c>
-      <c r="K158" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>16</v>
+      <c r="A159" t="s">
+        <v>574</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="C159" t="s">
+        <v>575</v>
+      </c>
+      <c r="J159" t="s">
+        <v>565</v>
+      </c>
+      <c r="K159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>576</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C160" t="s">
+        <v>577</v>
+      </c>
+      <c r="J160" t="s">
+        <v>565</v>
+      </c>
+      <c r="K160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>569</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C161" t="s">
+        <v>380</v>
+      </c>
+      <c r="J161" t="s">
+        <v>565</v>
+      </c>
+      <c r="K161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>578</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C162" t="s">
+        <v>392</v>
+      </c>
+      <c r="J162" t="s">
+        <v>565</v>
+      </c>
+      <c r="K162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B163" s="3"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>580</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C164" t="s">
+        <v>581</v>
+      </c>
+      <c r="J164" t="s">
+        <v>565</v>
+      </c>
+      <c r="K164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>576</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C165" t="s">
+        <v>582</v>
+      </c>
+      <c r="J165" t="s">
+        <v>565</v>
+      </c>
+      <c r="K165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>583</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C166" t="s">
+        <v>405</v>
+      </c>
+      <c r="J166" t="s">
+        <v>565</v>
+      </c>
+      <c r="K166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B167" s="3"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>585</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C168" t="s">
+        <v>586</v>
+      </c>
+      <c r="J168" t="s">
+        <v>584</v>
+      </c>
+      <c r="K168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>587</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C169" t="s">
+        <v>571</v>
+      </c>
+      <c r="J169" t="s">
+        <v>584</v>
+      </c>
+      <c r="K169" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>570</v>
       </c>
-      <c r="J159" t="s">
-        <v>568</v>
-      </c>
-      <c r="K159" s="8" t="s">
+      <c r="B170" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C170" t="s">
+        <v>571</v>
+      </c>
+      <c r="J170" t="s">
+        <v>584</v>
+      </c>
+      <c r="K170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>569</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C171" t="s">
+        <v>380</v>
+      </c>
+      <c r="J171" t="s">
+        <v>584</v>
+      </c>
+      <c r="K171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B172" s="3"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>589</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C173" t="s">
+        <v>590</v>
+      </c>
+      <c r="J173" t="s">
+        <v>588</v>
+      </c>
+      <c r="K173" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>578</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C174" t="s">
+        <v>392</v>
+      </c>
+      <c r="J174" t="s">
+        <v>588</v>
+      </c>
+      <c r="K174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>593</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C175" t="s">
+        <v>592</v>
+      </c>
+      <c r="J175" t="s">
+        <v>588</v>
+      </c>
+      <c r="K175" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C160" t="s">
-        <v>427</v>
-      </c>
-      <c r="J160" t="s">
-        <v>568</v>
-      </c>
-      <c r="K160" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="51"/>
-      <c r="B163" s="51"/>
-      <c r="C163" s="51"/>
-      <c r="D163" s="51"/>
-      <c r="E163" s="51"/>
-      <c r="F163" s="51"/>
-      <c r="G163" s="51"/>
-      <c r="H163" s="51"/>
-      <c r="I163" s="51"/>
-      <c r="J163" s="51"/>
-      <c r="K163" s="51"/>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>591</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C176" t="s">
+        <v>426</v>
+      </c>
+      <c r="J176" t="s">
+        <v>588</v>
+      </c>
+      <c r="K176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B177" s="3"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B178" s="3"/>
+    </row>
+    <row r="179" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="45"/>
+      <c r="B179" s="51"/>
+      <c r="C179" s="53" t="s">
+        <v>594</v>
+      </c>
+      <c r="D179" s="45"/>
+      <c r="E179" s="45"/>
+      <c r="F179" s="45"/>
+      <c r="G179" s="45"/>
+      <c r="H179" s="45"/>
+      <c r="I179" s="45"/>
+      <c r="J179" s="45"/>
+      <c r="K179" s="45"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>368</v>
+      </c>
+      <c r="B180" s="50"/>
+      <c r="C180" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F180" s="11"/>
+      <c r="J180" t="s">
+        <v>594</v>
+      </c>
+      <c r="K180" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B181" s="3"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>566</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C182" t="s">
+        <v>376</v>
+      </c>
+      <c r="J182" t="s">
+        <v>596</v>
+      </c>
+      <c r="K182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>597</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C183" t="s">
+        <v>598</v>
+      </c>
+      <c r="J183" t="s">
+        <v>596</v>
+      </c>
+      <c r="K183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>569</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C184" t="s">
+        <v>599</v>
+      </c>
+      <c r="J184" t="s">
+        <v>596</v>
+      </c>
+      <c r="K184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>600</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C185" t="s">
+        <v>601</v>
+      </c>
+      <c r="J185" t="s">
+        <v>596</v>
+      </c>
+      <c r="K185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>602</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C186" t="s">
+        <v>603</v>
+      </c>
+      <c r="J186" t="s">
+        <v>596</v>
+      </c>
+      <c r="K186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>604</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C187" t="s">
+        <v>605</v>
+      </c>
+      <c r="J187" t="s">
+        <v>596</v>
+      </c>
+      <c r="K187" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>569</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C188" t="s">
+        <v>599</v>
+      </c>
+      <c r="J188" t="s">
+        <v>596</v>
+      </c>
+      <c r="K188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>606</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C189" t="s">
+        <v>605</v>
+      </c>
+      <c r="J189" t="s">
+        <v>596</v>
+      </c>
+      <c r="K189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>569</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C190" t="s">
+        <v>599</v>
+      </c>
+      <c r="J190" t="s">
+        <v>596</v>
+      </c>
+      <c r="K190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B191" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C191" t="s">
+        <v>617</v>
+      </c>
+      <c r="J191" t="s">
+        <v>596</v>
+      </c>
+      <c r="K191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B192" s="3"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="B193" s="3"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>578</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C194" t="s">
+        <v>400</v>
+      </c>
+      <c r="J194" t="s">
+        <v>609</v>
+      </c>
+      <c r="K194" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>610</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C195" t="s">
+        <v>400</v>
+      </c>
+      <c r="J195" t="s">
+        <v>609</v>
+      </c>
+      <c r="K195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>535</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C196" t="s">
+        <v>405</v>
+      </c>
+      <c r="J196" t="s">
+        <v>609</v>
+      </c>
+      <c r="K196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>611</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C197" t="s">
+        <v>612</v>
+      </c>
+      <c r="J197" t="s">
+        <v>609</v>
+      </c>
+      <c r="K197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>613</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C198" t="s">
+        <v>601</v>
+      </c>
+      <c r="J198" t="s">
+        <v>609</v>
+      </c>
+      <c r="K198" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>600</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C199" t="s">
+        <v>601</v>
+      </c>
+      <c r="J199" t="s">
+        <v>609</v>
+      </c>
+      <c r="K199" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>569</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C200" t="s">
+        <v>599</v>
+      </c>
+      <c r="J200" t="s">
+        <v>609</v>
+      </c>
+      <c r="K200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B201" s="3"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>589</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C202" t="s">
+        <v>615</v>
+      </c>
+      <c r="J202" t="s">
+        <v>614</v>
+      </c>
+      <c r="K202" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>578</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C203" t="s">
+        <v>392</v>
+      </c>
+      <c r="J203" t="s">
+        <v>614</v>
+      </c>
+      <c r="K203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>610</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C204" t="s">
+        <v>400</v>
+      </c>
+      <c r="J204" t="s">
+        <v>614</v>
+      </c>
+      <c r="K204" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>535</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C205" t="s">
+        <v>405</v>
+      </c>
+      <c r="J205" t="s">
+        <v>614</v>
+      </c>
+      <c r="K205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>593</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C206" t="s">
+        <v>616</v>
+      </c>
+      <c r="J206" t="s">
+        <v>614</v>
+      </c>
+      <c r="K206" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>591</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C207" t="s">
+        <v>426</v>
+      </c>
+      <c r="J207" t="s">
+        <v>614</v>
+      </c>
+      <c r="K207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B208" s="3"/>
+    </row>
+    <row r="209" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A209" s="45"/>
+      <c r="B209" s="51"/>
+      <c r="C209" s="54" t="s">
+        <v>639</v>
+      </c>
+      <c r="D209" s="45"/>
+      <c r="E209" s="45"/>
+      <c r="F209" s="45"/>
+      <c r="G209" s="45"/>
+      <c r="H209" s="45"/>
+      <c r="I209" s="45"/>
+      <c r="J209" s="45"/>
+      <c r="K209" s="45"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B210" s="3"/>
+      <c r="C210" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="J210" t="s">
+        <v>641</v>
+      </c>
+      <c r="K210" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B211" s="3"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>677</v>
+      </c>
+      <c r="B212" s="3"/>
+      <c r="C212" t="s">
+        <v>643</v>
+      </c>
+      <c r="J212" t="s">
+        <v>642</v>
+      </c>
+      <c r="K212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>678</v>
+      </c>
+      <c r="B213" s="3"/>
+      <c r="C213" t="s">
+        <v>644</v>
+      </c>
+      <c r="J213" t="s">
+        <v>642</v>
+      </c>
+      <c r="K213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>679</v>
+      </c>
+      <c r="B214" s="3"/>
+      <c r="C214" t="s">
+        <v>645</v>
+      </c>
+      <c r="J214" t="s">
+        <v>642</v>
+      </c>
+      <c r="K214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>680</v>
+      </c>
+      <c r="B215" s="3"/>
+      <c r="C215" t="s">
+        <v>646</v>
+      </c>
+      <c r="J215" t="s">
+        <v>642</v>
+      </c>
+      <c r="K215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>681</v>
+      </c>
+      <c r="B216" s="3"/>
+      <c r="C216" t="s">
+        <v>647</v>
+      </c>
+      <c r="J216" t="s">
+        <v>642</v>
+      </c>
+      <c r="K216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>679</v>
+      </c>
+      <c r="B217" s="3"/>
+      <c r="C217" t="s">
+        <v>648</v>
+      </c>
+      <c r="J217" t="s">
+        <v>642</v>
+      </c>
+      <c r="K217" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>535</v>
+      </c>
+      <c r="B218" s="3"/>
+      <c r="C218" t="s">
+        <v>649</v>
+      </c>
+      <c r="J218" t="s">
+        <v>642</v>
+      </c>
+      <c r="K218" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>650</v>
+      </c>
+      <c r="B219" s="3"/>
+      <c r="C219" t="s">
+        <v>662</v>
+      </c>
+      <c r="J219" t="s">
+        <v>642</v>
+      </c>
+      <c r="K219" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>651</v>
+      </c>
+      <c r="B220" s="3"/>
+      <c r="C220" t="s">
+        <v>663</v>
+      </c>
+      <c r="J220" t="s">
+        <v>642</v>
+      </c>
+      <c r="K220" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>652</v>
+      </c>
+      <c r="B221" s="3"/>
+      <c r="C221" t="s">
+        <v>663</v>
+      </c>
+      <c r="J221" t="s">
+        <v>642</v>
+      </c>
+      <c r="K221" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>653</v>
+      </c>
+      <c r="B222" s="3"/>
+      <c r="C222" t="s">
+        <v>664</v>
+      </c>
+      <c r="J222" t="s">
+        <v>642</v>
+      </c>
+      <c r="K222" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>654</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C223" t="s">
+        <v>664</v>
+      </c>
+      <c r="J223" t="s">
+        <v>642</v>
+      </c>
+      <c r="K223" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>655</v>
+      </c>
+      <c r="B224" s="3"/>
+      <c r="C224" t="s">
+        <v>665</v>
+      </c>
+      <c r="J224" t="s">
+        <v>642</v>
+      </c>
+      <c r="K224" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>656</v>
+      </c>
+      <c r="B225" s="3"/>
+      <c r="C225" t="s">
+        <v>665</v>
+      </c>
+      <c r="J225" t="s">
+        <v>642</v>
+      </c>
+      <c r="K225" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>661</v>
+      </c>
+      <c r="B226" s="3"/>
+      <c r="C226" t="s">
+        <v>666</v>
+      </c>
+      <c r="J226" t="s">
+        <v>642</v>
+      </c>
+      <c r="K226" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>660</v>
+      </c>
+      <c r="B227" s="3"/>
+      <c r="C227" t="s">
+        <v>657</v>
+      </c>
+      <c r="J227" t="s">
+        <v>642</v>
+      </c>
+      <c r="K227" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>659</v>
+      </c>
+      <c r="B228" s="3"/>
+      <c r="C228" t="s">
+        <v>658</v>
+      </c>
+      <c r="J228" t="s">
+        <v>642</v>
+      </c>
+      <c r="K228" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>668</v>
+      </c>
+      <c r="B229" s="3"/>
+      <c r="C229" t="s">
+        <v>667</v>
+      </c>
+      <c r="J229" t="s">
+        <v>642</v>
+      </c>
+      <c r="K229" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>674</v>
+      </c>
+      <c r="B230" s="3"/>
+      <c r="C230" t="s">
+        <v>669</v>
+      </c>
+      <c r="J230" t="s">
+        <v>642</v>
+      </c>
+      <c r="K230" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>675</v>
+      </c>
+      <c r="B231" s="3"/>
+      <c r="C231" t="s">
+        <v>670</v>
+      </c>
+      <c r="J231" t="s">
+        <v>642</v>
+      </c>
+      <c r="K231" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>676</v>
+      </c>
+      <c r="B232" s="3"/>
+      <c r="C232" t="s">
+        <v>671</v>
+      </c>
+      <c r="J232" t="s">
+        <v>642</v>
+      </c>
+      <c r="K232" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>583</v>
+      </c>
+      <c r="B233" s="3"/>
+      <c r="C233" t="s">
+        <v>649</v>
+      </c>
+      <c r="J233" t="s">
+        <v>642</v>
+      </c>
+      <c r="K233" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>593</v>
+      </c>
+      <c r="B234" s="3"/>
+      <c r="C234" t="s">
+        <v>672</v>
+      </c>
+      <c r="J234" t="s">
+        <v>642</v>
+      </c>
+      <c r="K234" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>682</v>
+      </c>
+      <c r="B235" s="3"/>
+      <c r="C235" t="s">
+        <v>673</v>
+      </c>
+      <c r="J235" t="s">
+        <v>642</v>
+      </c>
+      <c r="K235" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B236" s="3"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B237" s="3"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" s="45"/>
+      <c r="B238" s="45"/>
+      <c r="C238" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D238" s="45"/>
+      <c r="E238" s="45"/>
+      <c r="F238" s="45"/>
+      <c r="G238" s="45"/>
+      <c r="H238" s="45"/>
+      <c r="I238" s="45"/>
+      <c r="J238" s="45"/>
+      <c r="K238" s="45"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>368</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="J239" t="s">
+        <v>110</v>
+      </c>
+      <c r="K239" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>686</v>
+      </c>
+      <c r="B241" t="s">
+        <v>122</v>
+      </c>
+      <c r="C241" t="s">
+        <v>687</v>
+      </c>
+      <c r="J241" t="s">
+        <v>685</v>
+      </c>
+      <c r="K241" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>688</v>
+      </c>
+      <c r="B242" t="s">
+        <v>122</v>
+      </c>
+      <c r="C242" t="s">
+        <v>689</v>
+      </c>
+      <c r="J242" t="s">
+        <v>685</v>
+      </c>
+      <c r="K242" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>690</v>
+      </c>
+      <c r="B243" t="s">
+        <v>122</v>
+      </c>
+      <c r="C243" t="s">
+        <v>691</v>
+      </c>
+      <c r="J243" t="s">
+        <v>685</v>
+      </c>
+      <c r="K243" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>688</v>
+      </c>
+      <c r="B244" t="s">
+        <v>122</v>
+      </c>
+      <c r="C244" t="s">
+        <v>689</v>
+      </c>
+      <c r="J244" t="s">
+        <v>685</v>
+      </c>
+      <c r="K244" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>692</v>
+      </c>
+      <c r="B245" t="s">
+        <v>122</v>
+      </c>
+      <c r="C245" t="s">
+        <v>693</v>
+      </c>
+      <c r="J245" t="s">
+        <v>685</v>
+      </c>
+      <c r="K245" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>688</v>
+      </c>
+      <c r="B246" t="s">
+        <v>122</v>
+      </c>
+      <c r="C246" t="s">
+        <v>689</v>
+      </c>
+      <c r="J246" t="s">
+        <v>685</v>
+      </c>
+      <c r="K246" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>694</v>
+      </c>
+      <c r="B247" t="s">
+        <v>122</v>
+      </c>
+      <c r="C247" t="s">
+        <v>695</v>
+      </c>
+      <c r="J247" t="s">
+        <v>685</v>
+      </c>
+      <c r="K247" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>688</v>
+      </c>
+      <c r="B248" t="s">
+        <v>122</v>
+      </c>
+      <c r="C248" t="s">
+        <v>689</v>
+      </c>
+      <c r="J248" t="s">
+        <v>685</v>
+      </c>
+      <c r="K248" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>697</v>
+      </c>
+      <c r="B250" t="s">
+        <v>122</v>
+      </c>
+      <c r="C250" t="s">
+        <v>581</v>
+      </c>
+      <c r="J250" t="s">
+        <v>685</v>
+      </c>
+      <c r="K250" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>692</v>
+      </c>
+      <c r="B251" t="s">
+        <v>122</v>
+      </c>
+      <c r="C251" t="s">
+        <v>698</v>
+      </c>
+      <c r="J251" t="s">
+        <v>685</v>
+      </c>
+      <c r="K251" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>699</v>
+      </c>
+      <c r="B252" t="s">
+        <v>122</v>
+      </c>
+      <c r="C252" t="s">
+        <v>700</v>
+      </c>
+      <c r="J252" t="s">
+        <v>685</v>
+      </c>
+      <c r="K252" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>589</v>
+      </c>
+      <c r="B254" t="s">
+        <v>122</v>
+      </c>
+      <c r="C254" t="s">
+        <v>702</v>
+      </c>
+      <c r="J254" t="s">
+        <v>701</v>
+      </c>
+      <c r="K254" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>699</v>
+      </c>
+      <c r="B255" t="s">
+        <v>122</v>
+      </c>
+      <c r="C255" t="s">
+        <v>703</v>
+      </c>
+      <c r="J255" t="s">
+        <v>701</v>
+      </c>
+      <c r="K255" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>705</v>
+      </c>
+      <c r="B257" t="s">
+        <v>122</v>
+      </c>
+      <c r="C257" t="s">
+        <v>581</v>
+      </c>
+      <c r="J257" t="s">
+        <v>701</v>
+      </c>
+      <c r="K257" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>697</v>
+      </c>
+      <c r="B258" t="s">
+        <v>122</v>
+      </c>
+      <c r="C258" t="s">
+        <v>581</v>
+      </c>
+      <c r="J258" t="s">
+        <v>701</v>
+      </c>
+      <c r="K258" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>692</v>
+      </c>
+      <c r="B259" t="s">
+        <v>122</v>
+      </c>
+      <c r="C259" t="s">
+        <v>698</v>
+      </c>
+      <c r="J259" t="s">
+        <v>701</v>
+      </c>
+      <c r="K259" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>699</v>
+      </c>
+      <c r="B260" t="s">
+        <v>122</v>
+      </c>
+      <c r="C260" t="s">
+        <v>703</v>
+      </c>
+      <c r="J260" t="s">
+        <v>701</v>
+      </c>
+      <c r="K260" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>707</v>
+      </c>
+      <c r="B262" t="s">
+        <v>122</v>
+      </c>
+      <c r="C262" t="s">
+        <v>708</v>
+      </c>
+      <c r="J262" t="s">
+        <v>706</v>
+      </c>
+      <c r="K262" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>688</v>
+      </c>
+      <c r="B263" t="s">
+        <v>122</v>
+      </c>
+      <c r="C263" t="s">
+        <v>709</v>
+      </c>
+      <c r="J263" t="s">
+        <v>706</v>
+      </c>
+      <c r="K263" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>710</v>
+      </c>
+      <c r="B264" t="s">
+        <v>122</v>
+      </c>
+      <c r="C264" t="s">
+        <v>711</v>
+      </c>
+      <c r="J264" t="s">
+        <v>706</v>
+      </c>
+      <c r="K264" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>712</v>
+      </c>
+      <c r="B265" t="s">
+        <v>122</v>
+      </c>
+      <c r="C265" t="s">
+        <v>713</v>
+      </c>
+      <c r="J265" t="s">
+        <v>706</v>
+      </c>
+      <c r="K265" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>714</v>
+      </c>
+      <c r="B266" t="s">
+        <v>122</v>
+      </c>
+      <c r="C266" t="s">
+        <v>715</v>
+      </c>
+      <c r="J266" t="s">
+        <v>706</v>
+      </c>
+      <c r="K266" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>716</v>
+      </c>
+      <c r="B267" t="s">
+        <v>122</v>
+      </c>
+      <c r="C267" t="s">
+        <v>717</v>
+      </c>
+      <c r="J267" t="s">
+        <v>706</v>
+      </c>
+      <c r="K267" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>688</v>
+      </c>
+      <c r="B268" t="s">
+        <v>122</v>
+      </c>
+      <c r="C268" t="s">
+        <v>709</v>
+      </c>
+      <c r="J268" t="s">
+        <v>706</v>
+      </c>
+      <c r="K268" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>718</v>
+      </c>
+      <c r="B269" t="s">
+        <v>122</v>
+      </c>
+      <c r="C269" t="s">
+        <v>719</v>
+      </c>
+      <c r="J269" t="s">
+        <v>706</v>
+      </c>
+      <c r="K269" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>688</v>
+      </c>
+      <c r="B270" t="s">
+        <v>122</v>
+      </c>
+      <c r="C270" t="s">
+        <v>709</v>
+      </c>
+      <c r="J270" t="s">
+        <v>706</v>
+      </c>
+      <c r="K270" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>589</v>
+      </c>
+      <c r="B272" t="s">
+        <v>111</v>
+      </c>
+      <c r="C272" t="s">
+        <v>721</v>
+      </c>
+      <c r="J272" t="s">
+        <v>720</v>
+      </c>
+      <c r="K272" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B274" s="3"/>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B275" s="3"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B276" s="3"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B277" s="3"/>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B278" s="3"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B279" s="3"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B280" s="3"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B281" s="3"/>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B282" s="3"/>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B283" s="3"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>607</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C286" t="s">
+        <v>608</v>
+      </c>
+      <c r="J286" t="s">
+        <v>596</v>
+      </c>
+      <c r="K286" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C41" r:id="rId2"/>
-    <hyperlink ref="C123" r:id="rId3"/>
+    <hyperlink ref="C117" r:id="rId3"/>
+    <hyperlink ref="C239" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/object/OR_Purchase_m.xlsx
+++ b/src/object/OR_Purchase_m.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priti\workspace\JibeFunctionalTest\src\object\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priti\workspace\Purchase\src\object\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="818">
   <si>
     <t>AUTOMATION SCRIPTS</t>
   </si>
@@ -1705,9 +1705,6 @@
     <t>Click on search Button</t>
   </si>
   <si>
-    <t>Click on Deleye Button</t>
-  </si>
-  <si>
     <t>Click on Resfresh Button</t>
   </si>
   <si>
@@ -1840,21 +1837,6 @@
     <t>ctl00_MainContent_txtLongDesc</t>
   </si>
   <si>
-    <t>Clear txt_No. of Location</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_txtNoLoc</t>
-  </si>
-  <si>
-    <t>Type txt_No. of Location</t>
-  </si>
-  <si>
-    <t>Select dd_Vessel Type</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_ddlvessel_AddType</t>
-  </si>
-  <si>
     <t>EditLocation</t>
   </si>
   <si>
@@ -1879,326 +1861,632 @@
     <t>.//*[@id='ctl00_MainContent_rgdLocation']/tbody/tr/td</t>
   </si>
   <si>
+    <t xml:space="preserve"> Enter Txt_Item Category Name</t>
+  </si>
+  <si>
+    <t>Click on CheckBox Spare</t>
+  </si>
+  <si>
+    <t>1)Click on Supplier Type</t>
+  </si>
+  <si>
+    <t>Click on Supplier Type</t>
+  </si>
+  <si>
+    <t>Click on checkbox button owner</t>
+  </si>
+  <si>
+    <t>Click on checkbox button Broker</t>
+  </si>
+  <si>
+    <t>Click on Radio button Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Radio button DelvryDate </t>
+  </si>
+  <si>
+    <t>Click on Radio button vessel movement Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Radio button Item Category </t>
+  </si>
+  <si>
+    <t>Click on Perchase Mandatory Setting</t>
+  </si>
+  <si>
+    <t>CheckBox VesselMovement</t>
+  </si>
+  <si>
+    <t>CheckBox Delivery Date</t>
+  </si>
+  <si>
+    <t>Click on Update</t>
+  </si>
+  <si>
+    <t>Click on Add Rank</t>
+  </si>
+  <si>
+    <t>Click on AutomaticRequisition</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_tbCntr_tbAutRqsn_chkSuppConf</t>
+  </si>
+  <si>
+    <t>1)Click on CheckBox  Delivery Update</t>
+  </si>
+  <si>
+    <t>Click on CheckBox Delivery Update</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_tbCntr_TbConfigSetting_gvPOConfig_ctl19_lnkBtn_Reqsn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Items  Min-Max Quantity </t>
+  </si>
+  <si>
+    <t>http://192.168.1.102/JIBE/purchase/PURC_Items_Quantity_List.aspx</t>
+  </si>
+  <si>
+    <t>MinMaxQuantityURL</t>
+  </si>
+  <si>
+    <t>CatalogueItem</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_DDLFleet_imgCollapseExpandDDL</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_DDLFleet_CheckBoxListItems_1</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_DDLFleet_btnApplyFilter</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_DDLVessel_imgCollapseExpandDDL</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_DDLVessel_CheckBoxListItems_1</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_DDLVessel_btnApplyFilter</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_btnSearch</t>
+  </si>
+  <si>
+    <t>Click on EDit</t>
+  </si>
+  <si>
+    <t>Clear Effect Date</t>
+  </si>
+  <si>
+    <t>Type txr_Effect Date</t>
+  </si>
+  <si>
+    <t>Clear Min Qty</t>
+  </si>
+  <si>
+    <t>Type txt_Min Qty</t>
+  </si>
+  <si>
+    <t>Clear Max Qty</t>
+  </si>
+  <si>
+    <t>Type txt_Max Qty</t>
+  </si>
+  <si>
+    <t>.//*[@id='ctl00_MainContent_gvPurcItems_ctl02_imgRecordInfo']</t>
+  </si>
+  <si>
+    <t>.//*[@id='__divMsgTooltip_Fixed']/tr[1]/td[2]/div/img</t>
+  </si>
+  <si>
+    <t>Click on Close</t>
+  </si>
+  <si>
+    <t>Click on Verify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Certificate Inspection </t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_gvPurcItems_ctl02_imgEdit</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_txtNewEffDate</t>
+  </si>
+  <si>
+    <t>txtNewMinQty</t>
+  </si>
+  <si>
+    <t>txtNewMaxQty</t>
+  </si>
+  <si>
+    <t>.//*[@id='dvChangeMinmaxQty_M']/table/tbody/tr[4]/td/img[1]</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_rbtnDeptType_1</t>
+  </si>
+  <si>
+    <t>Click on Department Type radio Button</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlDepartment</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlCatalogue</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlSubCatalogue</t>
+  </si>
+  <si>
+    <t>.//*[@id='ctl00_MainContent_gvPurcItems']/tbody/tr/td</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_btnExport</t>
+  </si>
+  <si>
+    <t>Select dd_Department</t>
+  </si>
+  <si>
+    <t>Select dd_Catalogue</t>
+  </si>
+  <si>
+    <t>Select dd_SubCatalogue</t>
+  </si>
+  <si>
+    <t>Select dd_Fleet</t>
+  </si>
+  <si>
+    <t>Select dd_Fleet-B</t>
+  </si>
+  <si>
+    <t>Click on Ok</t>
+  </si>
+  <si>
+    <t>Select dd_Vessel</t>
+  </si>
+  <si>
+    <t>Select dd_Imara</t>
+  </si>
+  <si>
+    <t>Click on Export to  Excel</t>
+  </si>
+  <si>
+    <t>ImageClick_Ctrl</t>
+  </si>
+  <si>
+    <t>http://192.168.1.102/JIBE/Purchase/Purchase_Questionnaire.aspx</t>
+  </si>
+  <si>
+    <t>AddNewQuestion</t>
+  </si>
+  <si>
+    <t>Click on Add New Question</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_lnkAddNewQuestion</t>
+  </si>
+  <si>
+    <t>Click on Save And Close button</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_btnSaveAndClose</t>
+  </si>
+  <si>
+    <t>Type txt_Question</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_txtQuestion</t>
+  </si>
+  <si>
+    <t>Select dd_Requisition Type</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlCatName</t>
+  </si>
+  <si>
+    <t>Select dd_Grading Type</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlGradingType</t>
+  </si>
+  <si>
+    <t>Verify Added Question</t>
+  </si>
+  <si>
+    <t>Type txt_ Search</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Record </t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_grdQuestion_ctl02_lblQuestion</t>
+  </si>
+  <si>
+    <t>DeleteNewQuestion</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_grdQuestion_ctl02_LinkButton1del</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_grdQuestion</t>
+  </si>
+  <si>
+    <t>Verify Deleted Question</t>
+  </si>
+  <si>
+    <t>Clear txt_ Search</t>
+  </si>
+  <si>
+    <t>AddNewGrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Add New Grade </t>
+  </si>
+  <si>
+    <t>lnkAddNewGrade</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_btnSaveAndCloseGrade</t>
+  </si>
+  <si>
+    <t>Type txt_Grade</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_txtGrade</t>
+  </si>
+  <si>
+    <t>Click on Grading Type</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_rdoGradeType_0</t>
+  </si>
+  <si>
+    <t>Select dd_Min Point</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlMin</t>
+  </si>
+  <si>
+    <t>Select dd_Max Point</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlMax</t>
+  </si>
+  <si>
+    <t>Select dd_No of Options</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlDivisions</t>
+  </si>
+  <si>
+    <t>DeleteAddedNewGrade</t>
+  </si>
+  <si>
+    <t>NegativeTestCaseforAddNewLab</t>
+  </si>
+  <si>
     <t>closePopupbutton</t>
   </si>
   <si>
-    <t xml:space="preserve"> Enter Txt_Item Category Name</t>
-  </si>
-  <si>
-    <t>Click on CheckBox Spare</t>
-  </si>
-  <si>
-    <t>1)Click on Supplier Type</t>
-  </si>
-  <si>
-    <t>Click on Supplier Type</t>
-  </si>
-  <si>
-    <t>Click on checkbox button owner</t>
-  </si>
-  <si>
-    <t>Click on checkbox button Broker</t>
-  </si>
-  <si>
-    <t>Click on Radio button Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Radio button DelvryDate </t>
-  </si>
-  <si>
-    <t>Click on Radio button vessel movement Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Radio button Item Category </t>
-  </si>
-  <si>
-    <t>Click on Perchase Mandatory Setting</t>
-  </si>
-  <si>
-    <t>CheckBox VesselMovement</t>
-  </si>
-  <si>
-    <t>CheckBox Delivery Date</t>
-  </si>
-  <si>
-    <t>Click on Update</t>
-  </si>
-  <si>
-    <t>Click on Add Rank</t>
-  </si>
-  <si>
-    <t>Click on AutomaticRequisition</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_tbCntr_tbAutRqsn_chkSuppConf</t>
-  </si>
-  <si>
-    <t>1)Click on CheckBox  Delivery Update</t>
-  </si>
-  <si>
-    <t>Click on CheckBox Delivery Update</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_tbCntr_TbConfigSetting_gvPOConfig_ctl19_lnkBtn_Reqsn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set Items  Min-Max Quantity </t>
-  </si>
-  <si>
-    <t>http://192.168.1.102/JIBE/purchase/PURC_Items_Quantity_List.aspx</t>
-  </si>
-  <si>
-    <t>MinMaxQuantityURL</t>
-  </si>
-  <si>
-    <t>CatalogueItem</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_DDLFleet_imgCollapseExpandDDL</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_DDLFleet_CheckBoxListItems_1</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_DDLFleet_btnApplyFilter</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_DDLVessel_imgCollapseExpandDDL</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_DDLVessel_CheckBoxListItems_1</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_DDLVessel_btnApplyFilter</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_btnSearch</t>
-  </si>
-  <si>
-    <t>Click on EDit</t>
-  </si>
-  <si>
-    <t>Clear Effect Date</t>
-  </si>
-  <si>
-    <t>Type txr_Effect Date</t>
-  </si>
-  <si>
-    <t>Clear Min Qty</t>
-  </si>
-  <si>
-    <t>Type txt_Min Qty</t>
-  </si>
-  <si>
-    <t>Clear Max Qty</t>
-  </si>
-  <si>
-    <t>Type txt_Max Qty</t>
-  </si>
-  <si>
-    <t>.//*[@id='ctl00_MainContent_gvPurcItems_ctl02_imgRecordInfo']</t>
-  </si>
-  <si>
-    <t>.//*[@id='__divMsgTooltip_Fixed']/tr[1]/td[2]/div/img</t>
-  </si>
-  <si>
-    <t>Click on Close</t>
-  </si>
-  <si>
-    <t>Click on Verify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Certificate Inspection </t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_gvPurcItems_ctl02_imgEdit</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_txtNewEffDate</t>
-  </si>
-  <si>
-    <t>txtNewMinQty</t>
-  </si>
-  <si>
-    <t>txtNewMaxQty</t>
-  </si>
-  <si>
-    <t>.//*[@id='dvChangeMinmaxQty_M']/table/tbody/tr[4]/td/img[1]</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_rbtnDeptType_1</t>
-  </si>
-  <si>
-    <t>Click on Department Type radio Button</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_ddlDepartment</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_ddlCatalogue</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_ddlSubCatalogue</t>
-  </si>
-  <si>
-    <t>.//*[@id='ctl00_MainContent_gvPurcItems']/tbody/tr/td</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_btnExport</t>
-  </si>
-  <si>
-    <t>Select dd_Department</t>
-  </si>
-  <si>
-    <t>Select dd_Catalogue</t>
-  </si>
-  <si>
-    <t>Select dd_SubCatalogue</t>
-  </si>
-  <si>
-    <t>Select dd_Fleet</t>
-  </si>
-  <si>
-    <t>Select dd_Fleet-B</t>
-  </si>
-  <si>
-    <t>Click on Ok</t>
-  </si>
-  <si>
-    <t>Select dd_Vessel</t>
-  </si>
-  <si>
-    <t>Select dd_Imara</t>
-  </si>
-  <si>
-    <t>Click on Export to  Excel</t>
-  </si>
-  <si>
-    <t>ImageClick_Ctrl</t>
-  </si>
-  <si>
-    <t>http://192.168.1.102/JIBE/Purchase/Purchase_Questionnaire.aspx</t>
-  </si>
-  <si>
-    <t>AddNewQuestion</t>
-  </si>
-  <si>
-    <t>Click on Add New Question</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_lnkAddNewQuestion</t>
-  </si>
-  <si>
-    <t>Click on Save And Close button</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_btnSaveAndClose</t>
-  </si>
-  <si>
-    <t>Type txt_Question</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_txtQuestion</t>
-  </si>
-  <si>
-    <t>Select dd_Requisition Type</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_ddlCatName</t>
-  </si>
-  <si>
-    <t>Select dd_Grading Type</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_ddlGradingType</t>
-  </si>
-  <si>
-    <t>Verify Added Question</t>
-  </si>
-  <si>
-    <t>Type txt_ Search</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_ddlCategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Record </t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_grdQuestion_ctl02_lblQuestion</t>
-  </si>
-  <si>
-    <t>DeleteNewQuestion</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_grdQuestion_ctl02_LinkButton1del</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_grdQuestion</t>
-  </si>
-  <si>
-    <t>Verify Deleted Question</t>
-  </si>
-  <si>
-    <t>Clear txt_ Search</t>
-  </si>
-  <si>
-    <t>AddNewGrade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Add New Grade </t>
-  </si>
-  <si>
-    <t>lnkAddNewGrade</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_btnSaveAndCloseGrade</t>
-  </si>
-  <si>
-    <t>Type txt_Grade</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_txtGrade</t>
-  </si>
-  <si>
-    <t>Click on Grading Type</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_rdoGradeType_0</t>
-  </si>
-  <si>
-    <t>Select dd_Min Point</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_ddlMin</t>
-  </si>
-  <si>
-    <t>Select dd_Max Point</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_ddlMax</t>
-  </si>
-  <si>
-    <t>Select dd_No of Options</t>
-  </si>
-  <si>
-    <t>ctl00_MainContent_ddlDivisions</t>
-  </si>
-  <si>
-    <t>DeleteAddedNewGrade</t>
-  </si>
-  <si>
-    <t>ctl00$MainContent$grdGrading$ctl14$LinkButton1del</t>
+    <t>Click on Close button</t>
+  </si>
+  <si>
+    <t>NegativeTestCaseAddNewLocation</t>
+  </si>
+  <si>
+    <t>Click on Close  button</t>
+  </si>
+  <si>
+    <t>NegativeTestAddUnitPacking</t>
+  </si>
+  <si>
+    <t>Click on Close Button</t>
+  </si>
+  <si>
+    <t>1)Click on Close Button</t>
+  </si>
+  <si>
+    <t>Add unit tab should be closed</t>
+  </si>
+  <si>
+    <t>NegativeTestAddNewQuestion</t>
+  </si>
+  <si>
+    <t>Click  Close button</t>
+  </si>
+  <si>
+    <t>NegativeTestAddNewGrade</t>
+  </si>
+  <si>
+    <t>Click on  Close button</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_btnCloseGrade</t>
+  </si>
+  <si>
+    <t>Click on Grade text</t>
+  </si>
+  <si>
+    <t>Click on Question text</t>
+  </si>
+  <si>
+    <t>html/body/form/div[3]/div[2]/div[3]/div[1]/div/table[2]/tbody/tr[3]/td/fieldset/div/div/table/tbody/tr[2]/td/div/table/tbody/tr[14]/td[4]/input</t>
+  </si>
+  <si>
+    <t>Click on Item Category text</t>
+  </si>
+  <si>
+    <t>Click on Save</t>
+  </si>
+  <si>
+    <t>Click on search</t>
+  </si>
+  <si>
+    <t>Click on  Add Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Delete </t>
+  </si>
+  <si>
+    <t>Click on Expot to Excel</t>
+  </si>
+  <si>
+    <t>Click on Delete Button</t>
+  </si>
+  <si>
+    <t>NegativeTestAddFunctionDepartment</t>
+  </si>
+  <si>
+    <t>Click on close Button</t>
+  </si>
+  <si>
+    <t>NegativeTestAddNewCategory</t>
+  </si>
+  <si>
+    <t>Catalogue/Items</t>
+  </si>
+  <si>
+    <t>http://192.168.1.102/JIBE/Technical/PMS/PMS_Manage_System_SubSystem.aspx</t>
+  </si>
+  <si>
+    <t>ManageSystem</t>
+  </si>
+  <si>
+    <t>NegativeTestCaseAddCatalogue</t>
+  </si>
+  <si>
+    <t>Click on Radio Button</t>
+  </si>
+  <si>
+    <t>.//*[@id='ctl00_MainContent_rblReqsnType_0']</t>
+  </si>
+  <si>
+    <t>Click on Function/Department</t>
+  </si>
+  <si>
+    <t>.//*[@id='47755']/a</t>
+  </si>
+  <si>
+    <t>Click on Add Catalogue/System</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .//*[@id='btnAddSystem']     </t>
+  </si>
+  <si>
+    <t>Select dd_Maker</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlCalalogueMaker</t>
+  </si>
+  <si>
+    <t>btnCatalogueSave</t>
+  </si>
+  <si>
+    <t>Type txt_Name</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_txtCatalogName</t>
+  </si>
+  <si>
+    <t>Select dd_Account Code</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlCatalogAccountCode</t>
+  </si>
+  <si>
+    <t>Click on Close icon</t>
+  </si>
+  <si>
+    <t>PositiveTestCaseAddCatalogue</t>
+  </si>
+  <si>
+    <t>EditCatalogue</t>
+  </si>
+  <si>
+    <t>Click on AUTOMATIONDEPT(function/Dept)</t>
+  </si>
+  <si>
+    <t>.//*[@id='47755']/i</t>
+  </si>
+  <si>
+    <t>Click on Added Catalogue/System</t>
+  </si>
+  <si>
+    <t>html/body/form/div[2]/div[2]/div[3]/table/tbody/tr/td[1]/div/div[2]/div/ul/li[2]/ul/li/a</t>
+  </si>
+  <si>
+    <t>Click on Edit Catalogue/System</t>
+  </si>
+  <si>
+    <t>.//*[@id='btnEditSystem']</t>
+  </si>
+  <si>
+    <t>Clear txt_Name</t>
+  </si>
+  <si>
+    <t>Type txt__Name</t>
+  </si>
+  <si>
+    <t>Negative TestCase Add SubCatalogue</t>
+  </si>
+  <si>
+    <t>NegativeTestCaseAddSubCatalogue</t>
+  </si>
+  <si>
+    <t>Click on Add SubCatalogue/Subsystem</t>
+  </si>
+  <si>
+    <t>.//*[@id='btnAddSubSystem']</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlSubCatMaker</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_btnSaveSubCatalogue</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_txtSubCatalogueName</t>
+  </si>
+  <si>
+    <t>html/body/form/div[2]/div[2]/div[7]/div/div/div/div/img</t>
+  </si>
+  <si>
+    <t>Positive TestCase Add SubCatalogue</t>
+  </si>
+  <si>
+    <t>PositiveTestCaseAddSubCatalogue</t>
+  </si>
+  <si>
+    <t>Edit SubCatalogue</t>
+  </si>
+  <si>
+    <t>Click on AUTOMATIONDEPT(function/Dept)(Arrow)</t>
+  </si>
+  <si>
+    <t>EditSubCatalogue</t>
+  </si>
+  <si>
+    <t>html/body/form/div[2]/div[2]/div[3]/table/tbody/tr/td[1]/div/div[2]/div/ul/li[2]/ul/li/i</t>
+  </si>
+  <si>
+    <t>Click on Added SubCatalogue/Subsystem</t>
+  </si>
+  <si>
+    <t>html/body/form/div[2]/div[2]/div[3]/table/tbody/tr/td[1]/div/div[2]/div/ul/li[2]/ul/li/ul/li[1]/a</t>
+  </si>
+  <si>
+    <t>Click on Edit SubCatalogue/Subsystem</t>
+  </si>
+  <si>
+    <t>.//*[@id='btnEditSubSystem']</t>
+  </si>
+  <si>
+    <t>.//*[@id='ctl00_MainContent_btnSaveSubCatalogue']</t>
+  </si>
+  <si>
+    <t>NegativeTestCaseAddStoresItems</t>
+  </si>
+  <si>
+    <t>Click on Added Catalogue/System(Arrow)</t>
+  </si>
+  <si>
+    <t>Click on Add Stores Item</t>
+  </si>
+  <si>
+    <t>.//*[@id='btnAddSpareConsumption']</t>
+  </si>
+  <si>
+    <t>Type txt_Drawing number</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_txtItemDrawingNumber</t>
+  </si>
+  <si>
+    <t>.//*[@id='ctl00_MainContent_btnSaveItem']</t>
+  </si>
+  <si>
+    <t>Type txt_Part Number</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_txtItemPartNumber</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_txtItemName</t>
+  </si>
+  <si>
+    <t>ctl00_MainContent_ddlUnit</t>
+  </si>
+  <si>
+    <t>html/body/form/div[2]/div[2]/div[9]/div/div/div/div/img</t>
+  </si>
+  <si>
+    <t>PositiveTestCaseAddStoresItems</t>
+  </si>
+  <si>
+    <t>Edit StoresItem</t>
+  </si>
+  <si>
+    <t>Click on Edit icon</t>
+  </si>
+  <si>
+    <t>.//*[@id='tblSpare']/tbody/tr[2]/td[12]/table/tbody/tr/td[1]/img</t>
+  </si>
+  <si>
+    <t>EditStoresItem</t>
+  </si>
+  <si>
+    <t>Clear txt_Part Number</t>
+  </si>
+  <si>
+    <t>Delete StoresItem</t>
+  </si>
+  <si>
+    <t>.//*[@id='tblSpare']/tbody/tr[2]/td[12]/table/tbody/tr/td[2]/img</t>
+  </si>
+  <si>
+    <t>DeleteStoresItem</t>
+  </si>
+  <si>
+    <t>Delete SubCatalogue</t>
+  </si>
+  <si>
+    <t>Click on Delete SubCatalogue/Subsystem</t>
+  </si>
+  <si>
+    <t>.//*[@id='btnDeleteSubSystem']</t>
+  </si>
+  <si>
+    <t>DeleteSubCatalogue</t>
+  </si>
+  <si>
+    <t>Delete Catalogue</t>
+  </si>
+  <si>
+    <t>DeleteCatalogue</t>
+  </si>
+  <si>
+    <t>html/body/form/div[2]/div[2]/div[3]/table/tbody/tr/td[1]/div/div[2]/div/ul/li[2]/ul/li/div</t>
+  </si>
+  <si>
+    <t>Click on Delete Catalogue/System</t>
+  </si>
+  <si>
+    <t>.//*[@id='btnDeleteSystem']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2270,6 +2558,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2390,7 +2686,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
@@ -2501,6 +2797,23 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -2546,8 +2859,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K283" totalsRowShown="0">
-  <autoFilter ref="A1:K283"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K392" totalsRowShown="0">
+  <autoFilter ref="A1:K392"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Field Labels"/>
     <tableColumn id="2" name="Element Locating Type" dataDxfId="0"/>
@@ -7361,10 +7674,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K286"/>
+  <dimension ref="A1:K391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F305" sqref="F305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7375,8 +7688,8 @@
     <col min="4" max="4" width="38" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="9" width="5.28515625" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
     <col min="11" max="11" width="31.5703125" customWidth="1"/>
@@ -7456,19 +7769,19 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="11"/>
+      <c r="A4" s="57" t="s">
+        <v>719</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -7493,7 +7806,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12" t="s">
-        <v>430</v>
+        <v>719</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>8</v>
@@ -7522,7 +7835,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="12" t="s">
-        <v>430</v>
+        <v>719</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>14</v>
@@ -7548,10 +7861,10 @@
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>430</v>
+        <v>719</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>10</v>
@@ -7577,10 +7890,10 @@
       <c r="G8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
-        <v>430</v>
+        <v>719</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>14</v>
@@ -7603,102 +7916,85 @@
       <c r="F9" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>389</v>
+      <c r="G9" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="12" t="s">
-        <v>430</v>
+        <v>719</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>396</v>
+      <c r="A10" t="s">
+        <v>720</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="C10" t="s">
+        <v>715</v>
+      </c>
+      <c r="D10" t="s">
+        <v>721</v>
+      </c>
+      <c r="F10" t="s">
+        <v>722</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
       <c r="J10" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7738,173 +8034,223 @@
       <c r="B14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="G14" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>379</v>
+      <c r="A15" s="6" t="s">
+        <v>396</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="G15" s="12" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>14</v>
+      <c r="K15" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
+      <c r="A16" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B17" s="3"/>
+      <c r="A17" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>391</v>
+      <c r="A18" s="7" t="s">
+        <v>397</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>392</v>
-      </c>
-      <c r="D18" t="s">
-        <v>393</v>
-      </c>
-      <c r="F18" t="s">
-        <v>399</v>
-      </c>
-      <c r="J18" t="s">
-        <v>431</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>8</v>
+      <c r="C18" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>400</v>
-      </c>
-      <c r="D19" t="s">
-        <v>401</v>
-      </c>
-      <c r="F19" t="s">
-        <v>402</v>
-      </c>
-      <c r="J19" t="s">
-        <v>431</v>
-      </c>
-      <c r="K19" s="37" t="s">
-        <v>11</v>
+      <c r="C19" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>400</v>
-      </c>
-      <c r="D20" t="s">
-        <v>403</v>
-      </c>
-      <c r="F20" t="s">
-        <v>404</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="C20" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="K20" s="37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>405</v>
-      </c>
-      <c r="D21" t="s">
-        <v>406</v>
-      </c>
-      <c r="F21" t="s">
-        <v>407</v>
-      </c>
-      <c r="J21" t="s">
-        <v>431</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>8</v>
-      </c>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="D22" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="F22" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="J22" t="s">
         <v>431</v>
@@ -7915,16 +8261,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="D23" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="F23" t="s">
         <v>402</v>
@@ -7937,17 +8283,17 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>398</v>
+      <c r="A24" s="7" t="s">
+        <v>397</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="D24" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="F24" t="s">
         <v>404</v>
@@ -7961,19 +8307,19 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>379</v>
+        <v>84</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="D25" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="F25" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="J25" t="s">
         <v>431</v>
@@ -7983,100 +8329,120 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
+      <c r="A26" t="s">
+        <v>408</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="D26" t="s">
+        <v>410</v>
+      </c>
+      <c r="F26" t="s">
+        <v>404</v>
+      </c>
+      <c r="J26" t="s">
+        <v>431</v>
+      </c>
+      <c r="K26" s="37" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="36"/>
-      <c r="K27" s="37"/>
+      <c r="A27" t="s">
+        <v>413</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="D27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F27" t="s">
+        <v>402</v>
+      </c>
+      <c r="J27" t="s">
+        <v>431</v>
+      </c>
+      <c r="K27" s="37" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>391</v>
-      </c>
-      <c r="B28" s="50" t="s">
+        <v>398</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D28" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F28" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="J28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K28" s="37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>412</v>
-      </c>
-      <c r="B29" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="D29" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="F29" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J29" t="s">
+        <v>431</v>
+      </c>
+      <c r="K29" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="K29" s="37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>400</v>
-      </c>
-      <c r="D30" t="s">
-        <v>415</v>
-      </c>
-      <c r="F30" t="s">
-        <v>416</v>
-      </c>
-      <c r="J30" t="s">
-        <v>432</v>
-      </c>
-      <c r="K30" s="37" t="s">
-        <v>10</v>
-      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="36"/>
+      <c r="K30" s="37"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>391</v>
       </c>
       <c r="B31" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="D31" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="F31" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="J31" t="s">
         <v>432</v>
@@ -8087,265 +8453,277 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B32" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="D32" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="F32" t="s">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="J32" t="s">
         <v>432</v>
       </c>
       <c r="K32" s="37" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>391</v>
+      <c r="A33" s="7" t="s">
+        <v>397</v>
       </c>
       <c r="B33" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D33" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="F33" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="J33" t="s">
         <v>432</v>
       </c>
       <c r="K33" s="37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>398</v>
+        <v>84</v>
       </c>
       <c r="B34" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D34" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F34" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J34" t="s">
         <v>432</v>
       </c>
       <c r="K34" s="37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>418</v>
       </c>
       <c r="B35" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="D35" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="F35" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="J35" t="s">
         <v>432</v>
       </c>
       <c r="K35" s="37" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>422</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>423</v>
+        <v>391</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>122</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>424</v>
+        <v>392</v>
+      </c>
+      <c r="D36" t="s">
+        <v>393</v>
+      </c>
+      <c r="F36" t="s">
+        <v>399</v>
       </c>
       <c r="J36" t="s">
         <v>432</v>
       </c>
       <c r="K36" s="37" t="s">
-        <v>182</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>425</v>
-      </c>
-      <c r="B37" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B37" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="D37" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F37" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="J37" t="s">
         <v>432</v>
       </c>
       <c r="K37" s="37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="D38" t="s">
+        <v>406</v>
+      </c>
+      <c r="F38" t="s">
+        <v>421</v>
+      </c>
+      <c r="J38" t="s">
+        <v>432</v>
+      </c>
+      <c r="K38" s="37" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
+      <c r="A39" t="s">
+        <v>422</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="J39" t="s">
+        <v>432</v>
+      </c>
+      <c r="K39" s="37" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="30" t="s">
+      <c r="A40" t="s">
+        <v>425</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="D40" t="s">
+        <v>427</v>
+      </c>
+      <c r="F40" t="s">
+        <v>428</v>
+      </c>
+      <c r="J40" t="s">
+        <v>432</v>
+      </c>
+      <c r="K40" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="30" t="s">
         <v>494</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="40"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="40"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B43" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C43" s="41" t="s">
         <v>433</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="8"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" t="s">
-        <v>498</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>557</v>
-      </c>
+      <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="9" t="s">
-        <v>435</v>
-      </c>
+      <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="K43" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" t="s">
-        <v>436</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>437</v>
-      </c>
+      <c r="B44" s="49"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="12" t="s">
-        <v>438</v>
-      </c>
+      <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>335</v>
-      </c>
+      <c r="J44" s="12"/>
+      <c r="K44" s="8"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>532</v>
+        <v>434</v>
       </c>
       <c r="B45" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>439</v>
+        <v>498</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>440</v>
+        <v>557</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -8359,20 +8737,20 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="B46" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>620</v>
+        <v>437</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -8381,25 +8759,25 @@
         <v>556</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>622</v>
+      <c r="A47" s="6" t="s">
+        <v>532</v>
       </c>
       <c r="B47" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="34" t="s">
-        <v>444</v>
+      <c r="C47" t="s">
+        <v>439</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -8408,25 +8786,25 @@
         <v>556</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>335</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>623</v>
+      <c r="A48" s="7" t="s">
+        <v>614</v>
       </c>
       <c r="B48" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="33" t="s">
-        <v>447</v>
+      <c r="C48" t="s">
+        <v>442</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>448</v>
+        <v>613</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -8435,25 +8813,25 @@
         <v>556</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>335</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>532</v>
+      <c r="A49" s="9" t="s">
+        <v>615</v>
       </c>
       <c r="B49" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C49" t="s">
-        <v>439</v>
+      <c r="C49" s="34" t="s">
+        <v>444</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -8462,25 +8840,25 @@
         <v>556</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>539</v>
+      <c r="A50" s="12" t="s">
+        <v>616</v>
       </c>
       <c r="B50" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C50" t="s">
-        <v>451</v>
+      <c r="C50" s="33" t="s">
+        <v>447</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -8489,25 +8867,25 @@
         <v>556</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>624</v>
+      <c r="A51" s="6" t="s">
+        <v>532</v>
       </c>
       <c r="B51" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -8516,25 +8894,25 @@
         <v>556</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>335</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>457</v>
+      <c r="A52" s="7" t="s">
+        <v>539</v>
       </c>
       <c r="B52" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -8543,25 +8921,25 @@
         <v>556</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>335</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B53" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="34" t="s">
-        <v>459</v>
+      <c r="C53" t="s">
+        <v>453</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -8575,20 +8953,20 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>626</v>
+        <v>457</v>
       </c>
       <c r="B54" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -8602,19 +8980,21 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="B55" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C55" t="s">
-        <v>465</v>
+      <c r="C55" s="34" t="s">
+        <v>459</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
+      <c r="F55" s="9" t="s">
+        <v>461</v>
+      </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -8626,21 +9006,21 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>532</v>
+      <c r="A56" s="12" t="s">
+        <v>619</v>
       </c>
       <c r="B56" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C56" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12" t="s">
-        <v>382</v>
+        <v>464</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -8649,52 +9029,50 @@
         <v>556</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>14</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>434</v>
+      <c r="A57" s="9" t="s">
+        <v>620</v>
       </c>
       <c r="B57" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>637</v>
+        <v>465</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>557</v>
+        <v>466</v>
       </c>
       <c r="E57" s="9"/>
-      <c r="F57" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
       <c r="J57" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="K57" s="8" t="s">
-        <v>8</v>
+      <c r="K57" s="11" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>619</v>
+      <c r="A58" s="6" t="s">
+        <v>532</v>
       </c>
       <c r="B58" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C58" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12" t="s">
-        <v>438</v>
+        <v>382</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -8703,184 +9081,212 @@
         <v>556</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>532</v>
+        <v>434</v>
       </c>
       <c r="B59" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="34" t="s">
-        <v>439</v>
+      <c r="C59" t="s">
+        <v>630</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>440</v>
+        <v>557</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
+        <v>435</v>
+      </c>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
       <c r="J59" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="K59" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="11"/>
+      <c r="A60" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="B60" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>436</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="9"/>
+      <c r="A61" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B61" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>440</v>
+      </c>
       <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
+      <c r="F61" s="9" t="s">
+        <v>441</v>
+      </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="11"/>
+      <c r="J61" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
-        <v>628</v>
-      </c>
-      <c r="B62" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="12" t="s">
+      <c r="A62" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="B62" s="50"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="11"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="B63" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D63" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12" t="s">
+      <c r="E63" s="12"/>
+      <c r="F63" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="K62" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="B63" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
       <c r="J63" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="K63" s="11" t="s">
-        <v>335</v>
+      <c r="K63" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
-        <v>630</v>
+      <c r="A64" s="9" t="s">
+        <v>622</v>
       </c>
       <c r="B64" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
+      <c r="C64" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
       <c r="J64" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="K64" s="8" t="s">
+      <c r="K64" s="11" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>631</v>
+      <c r="A65" s="12" t="s">
+        <v>623</v>
       </c>
       <c r="B65" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="C65" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
       <c r="J65" s="12" t="s">
         <v>497</v>
       </c>
       <c r="K65" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B66" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="K66" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="8"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
@@ -8899,7 +9305,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B68" s="50" t="s">
         <v>122</v>
@@ -8926,7 +9332,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B69" s="50" t="s">
         <v>122</v>
@@ -8980,7 +9386,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>122</v>
@@ -9007,7 +9413,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B72" s="50" t="s">
         <v>122</v>
@@ -9033,221 +9439,251 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="8"/>
+      <c r="A73" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="B73" s="50"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="11"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="B74" s="50"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="11"/>
+      <c r="K74" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
-        <v>633</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
+      <c r="A75" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B75" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
       <c r="J75" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="K75" s="8" t="s">
-        <v>8</v>
+      <c r="K75" s="11" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>636</v>
+      <c r="A76" s="6" t="s">
+        <v>532</v>
       </c>
       <c r="B76" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
+      <c r="C76" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
       <c r="J76" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="K76" s="11" t="s">
-        <v>335</v>
+      <c r="K76" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="B77" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="K77" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="B77" s="50"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="50" t="s">
-        <v>122</v>
-      </c>
+      <c r="A78" s="42"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="44"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
       <c r="B79" s="50" t="s">
         <v>122</v>
       </c>
+      <c r="C79" s="34"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="11"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
+      <c r="A80" s="13" t="s">
+        <v>537</v>
+      </c>
       <c r="B80" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C80" s="30" t="s">
-        <v>499</v>
-      </c>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="44"/>
+      <c r="C80" s="35" t="s">
+        <v>536</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C81" s="34"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="11"/>
+      <c r="A81" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B81" s="56"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="60"/>
+      <c r="K81" s="60"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>537</v>
+      <c r="A82" s="7" t="s">
+        <v>533</v>
       </c>
       <c r="B82" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C82" s="35" t="s">
-        <v>536</v>
-      </c>
-      <c r="D82" s="12"/>
+      <c r="C82" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>501</v>
+      </c>
       <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
+      <c r="F82" s="12" t="s">
+        <v>502</v>
+      </c>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
-      <c r="J82" s="12" t="s">
-        <v>537</v>
+      <c r="J82" s="60" t="s">
+        <v>738</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="B83" s="50"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="9"/>
+      <c r="A83" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B83" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>440</v>
+      </c>
       <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
+      <c r="F83" s="9" t="s">
+        <v>382</v>
+      </c>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="11"/>
+      <c r="J83" s="60" t="s">
+        <v>738</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B84" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>376</v>
+        <v>504</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="12" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
-      <c r="J84" s="12" t="s">
-        <v>500</v>
+      <c r="J84" s="60" t="s">
+        <v>738</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -9270,164 +9706,152 @@
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
-      <c r="J85" s="12" t="s">
-        <v>500</v>
+      <c r="J85" s="60" t="s">
+        <v>738</v>
       </c>
       <c r="K85" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>530</v>
+      <c r="A86" s="10" t="s">
+        <v>531</v>
       </c>
       <c r="B86" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="12" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
-      <c r="J86" s="12" t="s">
-        <v>500</v>
+      <c r="J86" s="60" t="s">
+        <v>738</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
-        <v>531</v>
+      <c r="A87" s="6" t="s">
+        <v>532</v>
       </c>
       <c r="B87" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>508</v>
+        <v>440</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12" t="s">
-        <v>509</v>
+        <v>382</v>
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
-      <c r="J87" s="12" t="s">
-        <v>500</v>
+      <c r="J87" s="60" t="s">
+        <v>738</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>532</v>
+      <c r="A88" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="B88" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C88" s="33" t="s">
-        <v>503</v>
-      </c>
-      <c r="D88" s="12" t="s">
+      <c r="C88" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="60" t="s">
+        <v>738</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="B89" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" t="s">
+        <v>715</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>440</v>
-      </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="K88" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="B89" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="34" t="s">
-        <v>510</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>511</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="9" t="s">
-        <v>506</v>
+        <v>382</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
-      <c r="J89" s="12" t="s">
+      <c r="J89" s="60" t="s">
+        <v>738</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="K89" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="B90" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" s="34" t="s">
-        <v>503</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>440</v>
-      </c>
+      <c r="B90" s="50"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="9"/>
       <c r="E90" s="9"/>
-      <c r="F90" s="9" t="s">
-        <v>382</v>
-      </c>
+      <c r="F90" s="9"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
-      <c r="J90" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="K90" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="J90" s="9"/>
+      <c r="K90" s="11"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>534</v>
+      <c r="A91" s="7" t="s">
+        <v>533</v>
       </c>
       <c r="B91" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>393</v>
+        <v>501</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="12" t="s">
-        <v>399</v>
+        <v>502</v>
       </c>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
@@ -9446,23 +9870,23 @@
       <c r="B92" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C92" s="34" t="s">
-        <v>512</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9" t="s">
+      <c r="C92" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
       <c r="J92" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="K92" s="11" t="s">
+      <c r="K92" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9473,42 +9897,42 @@
       <c r="B93" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C93" s="34" t="s">
-        <v>514</v>
-      </c>
-      <c r="D93" s="9" t="s">
+      <c r="C93" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="D93" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9" t="s">
+      <c r="E93" s="12"/>
+      <c r="F93" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
       <c r="J93" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="K93" s="11" t="s">
+      <c r="K93" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>535</v>
+      <c r="A94" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="B94" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>405</v>
+        <v>510</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>406</v>
+        <v>511</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="9" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
@@ -9517,201 +9941,221 @@
         <v>500</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
+      <c r="A95" s="6" t="s">
+        <v>532</v>
+      </c>
       <c r="B95" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C95" s="33"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="8"/>
+      <c r="C95" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="B96" s="50"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="11"/>
+      <c r="A96" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B96" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="K96" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B97" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C97" s="33" t="s">
-        <v>517</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
+      <c r="C97" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
       <c r="J97" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="K97" s="8" t="s">
-        <v>8</v>
+        <v>500</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>518</v>
+      <c r="A98" s="10" t="s">
+        <v>531</v>
       </c>
       <c r="B98" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
+      <c r="F98" s="9" t="s">
+        <v>509</v>
+      </c>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B99" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="K98" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="B99" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C99" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="K99" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="B100" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C100" s="33" t="s">
-        <v>503</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="K100" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="B100" s="50"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="11"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>534</v>
+      <c r="A101" s="7" t="s">
+        <v>539</v>
       </c>
       <c r="B101" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C101" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
+      <c r="C101" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
       <c r="J101" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="K101" s="11" t="s">
+      <c r="K101" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
-        <v>530</v>
+      <c r="A102" s="6" t="s">
+        <v>518</v>
       </c>
       <c r="B102" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C102" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
+      <c r="C102" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
       <c r="J102" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="K102" s="8" t="s">
-        <v>10</v>
+      <c r="K102" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
-        <v>531</v>
+      <c r="A103" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="B103" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
@@ -9722,21 +10166,21 @@
         <v>516</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
-        <v>558</v>
+      <c r="A104" s="6" t="s">
+        <v>532</v>
       </c>
       <c r="B104" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C104" s="33" t="s">
-        <v>405</v>
+        <v>503</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
@@ -9746,129 +10190,139 @@
       <c r="J104" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="K104" s="8" t="s">
-        <v>8</v>
+      <c r="K104" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="6"/>
+      <c r="A105" s="6" t="s">
+        <v>534</v>
+      </c>
       <c r="B105" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C105" s="34"/>
-      <c r="D105" s="9"/>
+      <c r="C105" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>520</v>
+      </c>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="11"/>
+      <c r="J105" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="K105" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
-        <v>523</v>
+      <c r="A106" s="7" t="s">
+        <v>530</v>
       </c>
       <c r="B106" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C106" s="33"/>
-      <c r="D106" s="12"/>
+      <c r="C106" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>521</v>
+      </c>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="8"/>
+      <c r="J106" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
-        <v>559</v>
+      <c r="A107" s="10" t="s">
+        <v>531</v>
       </c>
       <c r="B107" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C107" s="34" t="s">
-        <v>524</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="K107" s="11" t="s">
-        <v>14</v>
+      <c r="C107" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B108" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C108" s="33" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>520</v>
+        <v>406</v>
       </c>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
-      <c r="J108" s="9" t="s">
+      <c r="J108" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="K108" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="K108" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
-        <v>530</v>
-      </c>
       <c r="B109" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C109" s="34" t="s">
-        <v>512</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="K109" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="C109" s="33"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="8"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
-        <v>531</v>
+      <c r="A110" s="6" t="s">
+        <v>737</v>
       </c>
       <c r="B110" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>526</v>
+        <v>420</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
@@ -9879,65 +10333,71 @@
         <v>523</v>
       </c>
       <c r="K110" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="6"/>
+      <c r="A111" s="7" t="s">
+        <v>559</v>
+      </c>
       <c r="B111" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C111" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
+      <c r="C111" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
       <c r="J111" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="K111" s="11" t="s">
+      <c r="K111" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="7"/>
+      <c r="A112" s="7" t="s">
+        <v>530</v>
+      </c>
       <c r="B112" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C112" s="33" t="s">
-        <v>527</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
+      <c r="C112" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
       <c r="J112" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="K112" s="8" t="s">
-        <v>182</v>
+      <c r="K112" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="6"/>
+      <c r="A113" s="10" t="s">
+        <v>531</v>
+      </c>
       <c r="B113" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>426</v>
+        <v>514</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
@@ -9948,435 +10408,562 @@
         <v>523</v>
       </c>
       <c r="K113" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>535</v>
+      </c>
       <c r="B114" s="50" t="s">
         <v>122</v>
       </c>
+      <c r="C114" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="K114" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>592</v>
+      </c>
       <c r="B115" s="50" t="s">
-        <v>122</v>
+        <v>16</v>
+      </c>
+      <c r="C115" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="K115" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="45"/>
+      <c r="A116" t="s">
+        <v>736</v>
+      </c>
       <c r="B116" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C116" s="46" t="s">
+      <c r="C116" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="K116" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B117" s="50"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="45"/>
+      <c r="B118" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" s="46" t="s">
         <v>540</v>
       </c>
-      <c r="D116" s="45"/>
-      <c r="E116" s="45"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="45"/>
-      <c r="H116" s="45"/>
-      <c r="I116" s="45"/>
-      <c r="J116" s="45"/>
-      <c r="K116" s="45"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B117" s="50"/>
-      <c r="C117" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="J117" t="s">
-        <v>541</v>
-      </c>
-      <c r="K117" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B118" s="50" t="s">
-        <v>122</v>
-      </c>
+      <c r="D118" s="45"/>
+      <c r="E118" s="45"/>
+      <c r="F118" s="45"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="45"/>
+      <c r="I118" s="45"/>
+      <c r="J118" s="45"/>
+      <c r="K118" s="45"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B119" s="50"/>
+      <c r="C119" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="J119" t="s">
+        <v>541</v>
+      </c>
+      <c r="K119" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="A120" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B120" s="50"/>
+      <c r="C120" s="1"/>
+      <c r="K120" s="8"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>734</v>
+      </c>
+      <c r="B121" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" t="s">
         <v>376</v>
       </c>
-      <c r="J120" t="s">
-        <v>543</v>
-      </c>
-      <c r="K120" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B121" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="J121" t="s">
+        <v>740</v>
+      </c>
+      <c r="K121" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>732</v>
+      </c>
+      <c r="B122" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" t="s">
         <v>503</v>
       </c>
-      <c r="J121" t="s">
-        <v>543</v>
-      </c>
-      <c r="K121" s="11" t="s">
+      <c r="J122" t="s">
+        <v>740</v>
+      </c>
+      <c r="K122" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="B122" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B123" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
         <v>544</v>
       </c>
-      <c r="J122" t="s">
-        <v>543</v>
-      </c>
-      <c r="K122" s="11" t="s">
+      <c r="J123" t="s">
+        <v>740</v>
+      </c>
+      <c r="K123" s="11" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B123" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C123" t="s">
-        <v>503</v>
-      </c>
-      <c r="J123" t="s">
-        <v>543</v>
-      </c>
-      <c r="K123" s="11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>732</v>
+      </c>
+      <c r="B124" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" t="s">
+        <v>503</v>
+      </c>
+      <c r="J124" t="s">
+        <v>740</v>
+      </c>
+      <c r="K124" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>552</v>
       </c>
-      <c r="B124" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B125" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C125" t="s">
         <v>545</v>
       </c>
-      <c r="J124" t="s">
-        <v>543</v>
-      </c>
-      <c r="K124" t="s">
+      <c r="J125" t="s">
+        <v>740</v>
+      </c>
+      <c r="K125" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B125" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C125" t="s">
-        <v>503</v>
-      </c>
-      <c r="J125" t="s">
-        <v>543</v>
-      </c>
-      <c r="K125" s="11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>732</v>
+      </c>
+      <c r="B126" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C126" t="s">
+        <v>503</v>
+      </c>
+      <c r="J126" t="s">
+        <v>740</v>
+      </c>
+      <c r="K126" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>555</v>
       </c>
-      <c r="B126" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B127" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C127" t="s">
         <v>554</v>
       </c>
-      <c r="J126" t="s">
+      <c r="J127" t="s">
+        <v>740</v>
+      </c>
+      <c r="K127" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>720</v>
+      </c>
+      <c r="B128" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C128" t="s">
+        <v>715</v>
+      </c>
+      <c r="J128" t="s">
+        <v>740</v>
+      </c>
+      <c r="K128" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="K126" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B127" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C127" t="s">
-        <v>503</v>
-      </c>
-      <c r="J127" t="s">
-        <v>543</v>
-      </c>
-      <c r="K127" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B128" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="K128" s="8"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B129" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C129" t="s">
-        <v>392</v>
-      </c>
-      <c r="J129" t="s">
-        <v>543</v>
-      </c>
-      <c r="K129" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="B129" s="50"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>618</v>
+        <v>734</v>
       </c>
       <c r="B130" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C130" t="s">
-        <v>512</v>
+        <v>376</v>
       </c>
       <c r="J130" t="s">
         <v>543</v>
       </c>
-      <c r="K130" s="11" t="s">
-        <v>10</v>
+      <c r="K130" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>551</v>
+      </c>
       <c r="B131" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C131" t="s">
-        <v>405</v>
+        <v>544</v>
       </c>
       <c r="J131" t="s">
         <v>543</v>
       </c>
-      <c r="K131" s="8" t="s">
-        <v>8</v>
+      <c r="K131" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B132" s="50"/>
+      <c r="A132" t="s">
+        <v>552</v>
+      </c>
+      <c r="B132" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C132" t="s">
+        <v>545</v>
+      </c>
+      <c r="J132" t="s">
+        <v>543</v>
+      </c>
+      <c r="K132" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B133" s="50"/>
+      <c r="A133" t="s">
+        <v>555</v>
+      </c>
+      <c r="B133" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C133" t="s">
+        <v>554</v>
+      </c>
+      <c r="J133" t="s">
+        <v>543</v>
+      </c>
+      <c r="K133" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>732</v>
+      </c>
       <c r="B134" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C134" t="s">
-        <v>547</v>
+        <v>503</v>
       </c>
       <c r="J134" t="s">
-        <v>546</v>
-      </c>
-      <c r="K134" s="8" t="s">
-        <v>8</v>
+        <v>543</v>
+      </c>
+      <c r="K134" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>534</v>
+      </c>
       <c r="B135" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C135" t="s">
-        <v>544</v>
+        <v>392</v>
       </c>
       <c r="J135" t="s">
-        <v>546</v>
-      </c>
-      <c r="K135" s="11" t="s">
-        <v>11</v>
+        <v>543</v>
+      </c>
+      <c r="K135" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="7" t="s">
-        <v>551</v>
+      <c r="A136" t="s">
+        <v>611</v>
       </c>
       <c r="B136" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C136" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="J136" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K136" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>733</v>
+      </c>
       <c r="B137" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C137" t="s">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="J137" t="s">
+        <v>543</v>
+      </c>
+      <c r="K137" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="K137" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B138" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C138" t="s">
-        <v>392</v>
-      </c>
-      <c r="J138" t="s">
-        <v>546</v>
-      </c>
-      <c r="K138" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="B138" s="50"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>553</v>
+        <v>731</v>
       </c>
       <c r="B139" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C139" t="s">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="J139" t="s">
         <v>546</v>
       </c>
-      <c r="K139" s="11" t="s">
-        <v>10</v>
+      <c r="K139" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>731</v>
+      </c>
       <c r="B140" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C140" t="s">
-        <v>405</v>
+        <v>544</v>
       </c>
       <c r="J140" t="s">
         <v>546</v>
       </c>
-      <c r="K140" s="8" t="s">
-        <v>8</v>
+      <c r="K140" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B141" s="50"/>
+      <c r="A141" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B141" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C141" t="s">
+        <v>544</v>
+      </c>
+      <c r="J141" t="s">
+        <v>546</v>
+      </c>
+      <c r="K141" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B142" s="50"/>
+      <c r="A142" t="s">
+        <v>732</v>
+      </c>
+      <c r="B142" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C142" t="s">
+        <v>503</v>
+      </c>
+      <c r="J142" t="s">
+        <v>546</v>
+      </c>
+      <c r="K142" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>534</v>
+      </c>
       <c r="B143" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C143" t="s">
-        <v>549</v>
+        <v>392</v>
       </c>
       <c r="J143" t="s">
-        <v>548</v>
-      </c>
-      <c r="K143" s="11" t="s">
-        <v>14</v>
+        <v>546</v>
+      </c>
+      <c r="K143" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>553</v>
+      </c>
       <c r="B144" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C144" t="s">
-        <v>392</v>
+        <v>512</v>
       </c>
       <c r="J144" t="s">
-        <v>548</v>
-      </c>
-      <c r="K144" s="8" t="s">
-        <v>8</v>
+        <v>546</v>
+      </c>
+      <c r="K144" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>553</v>
+        <v>733</v>
       </c>
       <c r="B145" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C145" t="s">
-        <v>512</v>
+        <v>405</v>
       </c>
       <c r="J145" t="s">
+        <v>546</v>
+      </c>
+      <c r="K145" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="K145" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B146" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C146" t="s">
-        <v>405</v>
-      </c>
-      <c r="J146" t="s">
-        <v>548</v>
-      </c>
-      <c r="K146" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="B146" s="50"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>735</v>
+      </c>
       <c r="B147" s="50" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="C147" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J147" t="s">
         <v>548</v>
       </c>
-      <c r="K147" s="8" t="s">
-        <v>182</v>
+      <c r="K147" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>534</v>
+      </c>
       <c r="B148" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C148" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="J148" t="s">
         <v>548</v>
@@ -10386,145 +10973,161 @@
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B149" s="3"/>
+      <c r="A149" t="s">
+        <v>553</v>
+      </c>
+      <c r="B149" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C149" t="s">
+        <v>512</v>
+      </c>
+      <c r="J149" t="s">
+        <v>548</v>
+      </c>
+      <c r="K149" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B150" s="3"/>
-    </row>
-    <row r="151" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A151" s="45"/>
-      <c r="B151" s="51"/>
-      <c r="C151" s="55" t="s">
-        <v>562</v>
-      </c>
-      <c r="D151" s="45"/>
-      <c r="E151" s="45"/>
-      <c r="F151" s="45"/>
-      <c r="G151" s="45"/>
-      <c r="H151" s="45"/>
-      <c r="I151" s="45"/>
-      <c r="J151" s="45"/>
-      <c r="K151" s="45"/>
+      <c r="A150" t="s">
+        <v>733</v>
+      </c>
+      <c r="B150" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C150" t="s">
+        <v>405</v>
+      </c>
+      <c r="J150" t="s">
+        <v>548</v>
+      </c>
+      <c r="K150" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>592</v>
+      </c>
+      <c r="B151" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C151" t="s">
+        <v>550</v>
+      </c>
+      <c r="J151" t="s">
+        <v>548</v>
+      </c>
+      <c r="K151" s="8" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>368</v>
-      </c>
-      <c r="B152" s="50"/>
-      <c r="C152" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="F152" s="11"/>
+        <v>736</v>
+      </c>
+      <c r="B152" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C152" t="s">
+        <v>426</v>
+      </c>
       <c r="J152" t="s">
-        <v>564</v>
-      </c>
-      <c r="K152" t="s">
-        <v>166</v>
+        <v>548</v>
+      </c>
+      <c r="K152" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>565</v>
-      </c>
       <c r="B153" s="3"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>566</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C154" t="s">
-        <v>376</v>
-      </c>
-      <c r="J154" t="s">
-        <v>565</v>
-      </c>
-      <c r="K154" t="s">
-        <v>8</v>
-      </c>
+    <row r="154" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A154" s="45"/>
+      <c r="B154" s="51"/>
+      <c r="C154" s="55" t="s">
+        <v>561</v>
+      </c>
+      <c r="D154" s="45"/>
+      <c r="E154" s="45"/>
+      <c r="F154" s="45"/>
+      <c r="G154" s="45"/>
+      <c r="H154" s="45"/>
+      <c r="I154" s="45"/>
+      <c r="J154" s="45"/>
+      <c r="K154" s="45"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>567</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C155" t="s">
-        <v>568</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B155" s="50"/>
+      <c r="C155" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F155" s="11"/>
       <c r="J155" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K155" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>569</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C156" t="s">
-        <v>380</v>
-      </c>
-      <c r="J156" t="s">
-        <v>565</v>
-      </c>
-      <c r="K156" t="s">
-        <v>14</v>
-      </c>
+      <c r="A156" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B156" s="56"/>
+      <c r="C156" s="1"/>
+      <c r="F156" s="47"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C157" t="s">
-        <v>571</v>
+        <v>376</v>
       </c>
       <c r="J157" t="s">
-        <v>565</v>
+        <v>714</v>
       </c>
       <c r="K157" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C158" t="s">
-        <v>573</v>
+        <v>380</v>
       </c>
       <c r="J158" t="s">
-        <v>565</v>
+        <v>714</v>
       </c>
       <c r="K158" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C159" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="J159" t="s">
-        <v>565</v>
+        <v>714</v>
       </c>
       <c r="K159" t="s">
         <v>10</v>
@@ -10532,73 +11135,73 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C160" t="s">
-        <v>577</v>
+        <v>380</v>
       </c>
       <c r="J160" t="s">
-        <v>565</v>
+        <v>714</v>
       </c>
       <c r="K160" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>569</v>
+        <v>716</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C161" t="s">
-        <v>380</v>
+        <v>715</v>
       </c>
       <c r="J161" t="s">
+        <v>714</v>
+      </c>
+      <c r="K161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B162" s="3"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>565</v>
       </c>
-      <c r="K161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>578</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C162" t="s">
-        <v>392</v>
-      </c>
-      <c r="J162" t="s">
-        <v>565</v>
-      </c>
-      <c r="K162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B163" s="3"/>
+      <c r="B163" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C163" t="s">
+        <v>376</v>
+      </c>
+      <c r="J163" t="s">
+        <v>564</v>
+      </c>
+      <c r="K163" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C164" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="J164" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K164" t="s">
         <v>10</v>
@@ -10606,241 +11209,272 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C165" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="J165" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C166" t="s">
-        <v>405</v>
+        <v>572</v>
       </c>
       <c r="J166" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K166" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="B167" s="3"/>
+      <c r="A167" t="s">
+        <v>573</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C167" t="s">
+        <v>574</v>
+      </c>
+      <c r="J167" t="s">
+        <v>564</v>
+      </c>
+      <c r="K167" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C168" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="J168" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="K168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C169" t="s">
-        <v>571</v>
+        <v>380</v>
       </c>
       <c r="J169" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="K169" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C170" t="s">
-        <v>571</v>
+        <v>392</v>
       </c>
       <c r="J170" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="K170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B171" s="3"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>579</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C172" t="s">
+        <v>580</v>
+      </c>
+      <c r="J172" t="s">
+        <v>564</v>
+      </c>
+      <c r="K172" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>569</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C171" t="s">
-        <v>380</v>
-      </c>
-      <c r="J171" t="s">
-        <v>584</v>
-      </c>
-      <c r="K171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B172" s="3"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C173" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="J173" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="K173" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C174" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="J174" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="K174" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>593</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C175" t="s">
-        <v>592</v>
-      </c>
-      <c r="J175" t="s">
-        <v>588</v>
-      </c>
-      <c r="K175" s="8" t="s">
-        <v>182</v>
-      </c>
+      <c r="A175" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B175" s="3"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C176" t="s">
-        <v>426</v>
+        <v>585</v>
       </c>
       <c r="J176" t="s">
+        <v>583</v>
+      </c>
+      <c r="K176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>586</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C177" t="s">
+        <v>570</v>
+      </c>
+      <c r="J177" t="s">
+        <v>583</v>
+      </c>
+      <c r="K177" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>569</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C178" t="s">
+        <v>570</v>
+      </c>
+      <c r="J178" t="s">
+        <v>583</v>
+      </c>
+      <c r="K178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>568</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C179" t="s">
+        <v>380</v>
+      </c>
+      <c r="J179" t="s">
+        <v>583</v>
+      </c>
+      <c r="K179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B180" s="3"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>588</v>
       </c>
-      <c r="K176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B177" s="3"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B178" s="3"/>
-    </row>
-    <row r="179" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="45"/>
-      <c r="B179" s="51"/>
-      <c r="C179" s="53" t="s">
-        <v>594</v>
-      </c>
-      <c r="D179" s="45"/>
-      <c r="E179" s="45"/>
-      <c r="F179" s="45"/>
-      <c r="G179" s="45"/>
-      <c r="H179" s="45"/>
-      <c r="I179" s="45"/>
-      <c r="J179" s="45"/>
-      <c r="K179" s="45"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>368</v>
-      </c>
-      <c r="B180" s="50"/>
-      <c r="C180" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F180" s="11"/>
-      <c r="J180" t="s">
-        <v>594</v>
-      </c>
-      <c r="K180" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B181" s="3"/>
+      <c r="B181" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C181" t="s">
+        <v>589</v>
+      </c>
+      <c r="J181" t="s">
+        <v>587</v>
+      </c>
+      <c r="K181" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C182" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="J182" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="K182" t="s">
         <v>8</v>
@@ -10848,209 +11482,200 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C183" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="J183" t="s">
-        <v>596</v>
-      </c>
-      <c r="K183" t="s">
-        <v>10</v>
+        <v>587</v>
+      </c>
+      <c r="K183" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C184" t="s">
-        <v>599</v>
+        <v>426</v>
       </c>
       <c r="J184" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="K184" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>600</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C185" t="s">
-        <v>601</v>
-      </c>
-      <c r="J185" t="s">
-        <v>596</v>
-      </c>
-      <c r="K185" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>602</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C186" t="s">
-        <v>603</v>
-      </c>
-      <c r="J186" t="s">
-        <v>596</v>
-      </c>
-      <c r="K186" t="s">
-        <v>10</v>
-      </c>
+      <c r="B185" s="3"/>
+    </row>
+    <row r="186" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="45"/>
+      <c r="B186" s="51"/>
+      <c r="C186" s="53" t="s">
+        <v>593</v>
+      </c>
+      <c r="D186" s="45"/>
+      <c r="E186" s="45"/>
+      <c r="F186" s="45"/>
+      <c r="G186" s="45"/>
+      <c r="H186" s="45"/>
+      <c r="I186" s="45"/>
+      <c r="J186" s="45"/>
+      <c r="K186" s="45"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>604</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C187" t="s">
-        <v>605</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B187" s="50"/>
+      <c r="C187" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F187" s="11"/>
       <c r="J187" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K187" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>569</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C188" t="s">
-        <v>599</v>
-      </c>
-      <c r="J188" t="s">
-        <v>596</v>
-      </c>
-      <c r="K188" t="s">
-        <v>14</v>
-      </c>
+      <c r="A188" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B188" s="56"/>
+      <c r="C188" s="1"/>
+      <c r="F188" s="47"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>606</v>
+        <v>565</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C189" t="s">
-        <v>605</v>
+        <v>376</v>
       </c>
       <c r="J189" t="s">
-        <v>596</v>
+        <v>717</v>
       </c>
       <c r="K189" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C190" t="s">
+        <v>598</v>
+      </c>
+      <c r="J190" t="s">
+        <v>717</v>
+      </c>
+      <c r="K190" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>596</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C191" t="s">
+        <v>597</v>
+      </c>
+      <c r="J191" t="s">
+        <v>717</v>
+      </c>
+      <c r="K191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>568</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C192" t="s">
+        <v>598</v>
+      </c>
+      <c r="J192" t="s">
+        <v>717</v>
+      </c>
+      <c r="K192" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>599</v>
       </c>
-      <c r="J190" t="s">
-        <v>596</v>
-      </c>
-      <c r="K190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B191" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C191" t="s">
-        <v>617</v>
-      </c>
-      <c r="J191" t="s">
-        <v>596</v>
-      </c>
-      <c r="K191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B192" s="3"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="B193" s="3"/>
+      <c r="B193" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C193" t="s">
+        <v>600</v>
+      </c>
+      <c r="J193" t="s">
+        <v>717</v>
+      </c>
+      <c r="K193" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>578</v>
+        <v>718</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C194" t="s">
-        <v>400</v>
+        <v>715</v>
       </c>
       <c r="J194" t="s">
-        <v>609</v>
+        <v>717</v>
       </c>
       <c r="K194" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>610</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C195" t="s">
-        <v>400</v>
-      </c>
-      <c r="J195" t="s">
-        <v>609</v>
-      </c>
-      <c r="K195" t="s">
-        <v>10</v>
-      </c>
+      <c r="A195" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B195" s="3"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C196" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="J196" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="K196" t="s">
         <v>8</v>
@@ -11058,50 +11683,50 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C197" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="J197" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="K197" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C198" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J198" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="K198" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C199" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="J199" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="K199" t="s">
         <v>10</v>
@@ -11109,90 +11734,90 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C200" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J200" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="K200" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>614</v>
+      <c r="A201" s="13" t="s">
+        <v>603</v>
       </c>
       <c r="B201" s="3"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C202" t="s">
-        <v>615</v>
+        <v>400</v>
       </c>
       <c r="J202" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="K202" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C203" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="J203" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="K203" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>610</v>
+        <v>535</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C204" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="J204" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="K204" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>535</v>
+        <v>605</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C205" t="s">
-        <v>405</v>
+        <v>606</v>
       </c>
       <c r="J205" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="K205" t="s">
         <v>8</v>
@@ -11200,102 +11825,124 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="C206" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="J206" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="K206" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C207" t="s">
-        <v>426</v>
+        <v>600</v>
       </c>
       <c r="J207" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="K207" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B208" s="3"/>
-    </row>
-    <row r="209" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A209" s="45"/>
-      <c r="B209" s="51"/>
-      <c r="C209" s="54" t="s">
-        <v>639</v>
-      </c>
-      <c r="D209" s="45"/>
-      <c r="E209" s="45"/>
-      <c r="F209" s="45"/>
-      <c r="G209" s="45"/>
-      <c r="H209" s="45"/>
-      <c r="I209" s="45"/>
-      <c r="J209" s="45"/>
-      <c r="K209" s="45"/>
+      <c r="A208" t="s">
+        <v>568</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C208" t="s">
+        <v>598</v>
+      </c>
+      <c r="J208" t="s">
+        <v>603</v>
+      </c>
+      <c r="K208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B209" s="3"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="B210" s="3"/>
-      <c r="C210" s="1" t="s">
-        <v>640</v>
+      <c r="A210" t="s">
+        <v>588</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C210" t="s">
+        <v>609</v>
       </c>
       <c r="J210" t="s">
-        <v>641</v>
+        <v>608</v>
       </c>
       <c r="K210" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="B211" s="3"/>
+      <c r="A211" t="s">
+        <v>577</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C211" t="s">
+        <v>392</v>
+      </c>
+      <c r="J211" t="s">
+        <v>608</v>
+      </c>
+      <c r="K211" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>677</v>
-      </c>
-      <c r="B212" s="3"/>
+        <v>604</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="C212" t="s">
-        <v>643</v>
+        <v>400</v>
       </c>
       <c r="J212" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="K212" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>678</v>
-      </c>
-      <c r="B213" s="3"/>
+        <v>535</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="C213" t="s">
-        <v>644</v>
+        <v>405</v>
       </c>
       <c r="J213" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="K213" t="s">
         <v>8</v>
@@ -11303,388 +11950,404 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>679</v>
-      </c>
-      <c r="B214" s="3"/>
+        <v>592</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C214" t="s">
-        <v>645</v>
+        <v>610</v>
       </c>
       <c r="J214" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="K214" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>680</v>
-      </c>
-      <c r="B215" s="3"/>
+        <v>590</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="C215" t="s">
-        <v>646</v>
+        <v>426</v>
       </c>
       <c r="J215" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="K215" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>681</v>
-      </c>
       <c r="B216" s="3"/>
-      <c r="C216" t="s">
-        <v>647</v>
-      </c>
-      <c r="J216" t="s">
-        <v>642</v>
-      </c>
-      <c r="K216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>679</v>
-      </c>
-      <c r="B217" s="3"/>
-      <c r="C217" t="s">
-        <v>648</v>
-      </c>
-      <c r="J217" t="s">
-        <v>642</v>
-      </c>
-      <c r="K217" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="217" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A217" s="45"/>
+      <c r="B217" s="51"/>
+      <c r="C217" s="54" t="s">
+        <v>632</v>
+      </c>
+      <c r="D217" s="45"/>
+      <c r="E217" s="45"/>
+      <c r="F217" s="45"/>
+      <c r="G217" s="45"/>
+      <c r="H217" s="45"/>
+      <c r="I217" s="45"/>
+      <c r="J217" s="45"/>
+      <c r="K217" s="45"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>535</v>
+      <c r="A218" s="2" t="s">
+        <v>634</v>
       </c>
       <c r="B218" s="3"/>
-      <c r="C218" t="s">
-        <v>649</v>
+      <c r="C218" s="1" t="s">
+        <v>633</v>
       </c>
       <c r="J218" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="K218" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>650</v>
+      <c r="A219" s="2" t="s">
+        <v>635</v>
       </c>
       <c r="B219" s="3"/>
-      <c r="C219" t="s">
-        <v>662</v>
-      </c>
-      <c r="J219" t="s">
-        <v>642</v>
-      </c>
-      <c r="K219" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="B220" s="3"/>
       <c r="C220" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
       <c r="J220" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="K220" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="B221" s="3"/>
       <c r="C221" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="J221" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="K221" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="B222" s="3"/>
       <c r="C222" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="J222" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="K222" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>654</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>638</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="B223" s="3"/>
       <c r="C223" t="s">
-        <v>664</v>
+        <v>639</v>
       </c>
       <c r="J223" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="K223" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="B224" s="3"/>
       <c r="C224" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="J224" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="K224" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="B225" s="3"/>
       <c r="C225" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
       <c r="J225" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="K225" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>661</v>
+        <v>535</v>
       </c>
       <c r="B226" s="3"/>
       <c r="C226" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="J226" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="K226" t="s">
-        <v>683</v>
+        <v>8</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J227" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="K227" t="s">
-        <v>683</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="B228" s="3"/>
       <c r="C228" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="J228" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="K228" t="s">
-        <v>683</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>668</v>
+        <v>645</v>
       </c>
       <c r="B229" s="3"/>
       <c r="C229" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="J229" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="K229" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>674</v>
+        <v>646</v>
       </c>
       <c r="B230" s="3"/>
       <c r="C230" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="J230" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="K230" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>675</v>
-      </c>
-      <c r="B231" s="3"/>
+        <v>647</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>631</v>
+      </c>
       <c r="C231" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="J231" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="K231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>676</v>
+        <v>648</v>
       </c>
       <c r="B232" s="3"/>
       <c r="C232" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="J232" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="K232" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>583</v>
+        <v>649</v>
       </c>
       <c r="B233" s="3"/>
       <c r="C233" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="J233" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="K233" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>593</v>
+        <v>654</v>
       </c>
       <c r="B234" s="3"/>
       <c r="C234" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="J234" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="K234" t="s">
-        <v>182</v>
+        <v>676</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" t="s">
-        <v>673</v>
+        <v>650</v>
       </c>
       <c r="J235" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="K235" t="s">
-        <v>8</v>
+        <v>676</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>652</v>
+      </c>
       <c r="B236" s="3"/>
+      <c r="C236" t="s">
+        <v>651</v>
+      </c>
+      <c r="J236" t="s">
+        <v>635</v>
+      </c>
+      <c r="K236" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>661</v>
+      </c>
       <c r="B237" s="3"/>
+      <c r="C237" t="s">
+        <v>660</v>
+      </c>
+      <c r="J237" t="s">
+        <v>635</v>
+      </c>
+      <c r="K237" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="45"/>
-      <c r="B238" s="45"/>
-      <c r="C238" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="D238" s="45"/>
-      <c r="E238" s="45"/>
-      <c r="F238" s="45"/>
-      <c r="G238" s="45"/>
-      <c r="H238" s="45"/>
-      <c r="I238" s="45"/>
-      <c r="J238" s="45"/>
-      <c r="K238" s="45"/>
+      <c r="A238" t="s">
+        <v>667</v>
+      </c>
+      <c r="B238" s="3"/>
+      <c r="C238" t="s">
+        <v>662</v>
+      </c>
+      <c r="J238" t="s">
+        <v>635</v>
+      </c>
+      <c r="K238" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>368</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>684</v>
+        <v>668</v>
+      </c>
+      <c r="B239" s="3"/>
+      <c r="C239" t="s">
+        <v>663</v>
       </c>
       <c r="J239" t="s">
-        <v>110</v>
+        <v>635</v>
       </c>
       <c r="K239" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
-        <v>685</v>
+      <c r="A240" t="s">
+        <v>669</v>
+      </c>
+      <c r="B240" s="3"/>
+      <c r="C240" t="s">
+        <v>664</v>
+      </c>
+      <c r="J240" t="s">
+        <v>635</v>
+      </c>
+      <c r="K240" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>686</v>
-      </c>
-      <c r="B241" t="s">
-        <v>122</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="B241" s="3"/>
       <c r="C241" t="s">
-        <v>687</v>
+        <v>642</v>
       </c>
       <c r="J241" t="s">
-        <v>685</v>
+        <v>635</v>
       </c>
       <c r="K241" t="s">
         <v>8</v>
@@ -11692,140 +12355,118 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>688</v>
-      </c>
-      <c r="B242" t="s">
-        <v>122</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="B242" s="3"/>
       <c r="C242" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="J242" t="s">
-        <v>685</v>
+        <v>635</v>
       </c>
       <c r="K242" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>690</v>
-      </c>
-      <c r="B243" t="s">
-        <v>122</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="B243" s="3"/>
       <c r="C243" t="s">
-        <v>691</v>
+        <v>666</v>
       </c>
       <c r="J243" t="s">
-        <v>685</v>
+        <v>635</v>
       </c>
       <c r="K243" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>688</v>
-      </c>
-      <c r="B244" t="s">
-        <v>122</v>
-      </c>
-      <c r="C244" t="s">
-        <v>689</v>
-      </c>
-      <c r="J244" t="s">
-        <v>685</v>
-      </c>
-      <c r="K244" t="s">
-        <v>14</v>
-      </c>
+      <c r="B244" s="3"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>692</v>
-      </c>
-      <c r="B245" t="s">
-        <v>122</v>
-      </c>
-      <c r="C245" t="s">
-        <v>693</v>
-      </c>
-      <c r="J245" t="s">
-        <v>685</v>
-      </c>
-      <c r="K245" t="s">
-        <v>9</v>
-      </c>
+      <c r="A245" s="45"/>
+      <c r="B245" s="45"/>
+      <c r="C245" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D245" s="45"/>
+      <c r="E245" s="45"/>
+      <c r="F245" s="45"/>
+      <c r="G245" s="45"/>
+      <c r="H245" s="45"/>
+      <c r="I245" s="45"/>
+      <c r="J245" s="45"/>
+      <c r="K245" s="45"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>688</v>
-      </c>
-      <c r="B246" t="s">
-        <v>122</v>
-      </c>
-      <c r="C246" t="s">
-        <v>689</v>
+        <v>368</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>677</v>
       </c>
       <c r="J246" t="s">
-        <v>685</v>
+        <v>110</v>
       </c>
       <c r="K246" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>694</v>
-      </c>
-      <c r="B247" t="s">
-        <v>122</v>
-      </c>
-      <c r="C247" t="s">
-        <v>695</v>
-      </c>
-      <c r="J247" t="s">
-        <v>685</v>
-      </c>
-      <c r="K247" t="s">
-        <v>9</v>
-      </c>
+      <c r="A247" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C247" s="1"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="B248" t="s">
         <v>122</v>
       </c>
       <c r="C248" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="J248" t="s">
-        <v>685</v>
+        <v>723</v>
       </c>
       <c r="K248" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249" s="2" t="s">
-        <v>696</v>
+      <c r="A249" t="s">
+        <v>681</v>
+      </c>
+      <c r="B249" t="s">
+        <v>122</v>
+      </c>
+      <c r="C249" t="s">
+        <v>682</v>
+      </c>
+      <c r="J249" t="s">
+        <v>723</v>
+      </c>
+      <c r="K249" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="B250" t="s">
         <v>122</v>
       </c>
       <c r="C250" t="s">
-        <v>581</v>
+        <v>684</v>
       </c>
       <c r="J250" t="s">
-        <v>685</v>
+        <v>723</v>
       </c>
       <c r="K250" t="s">
         <v>10</v>
@@ -11833,201 +12474,213 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="B251" t="s">
         <v>122</v>
       </c>
       <c r="C251" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="J251" t="s">
-        <v>685</v>
+        <v>723</v>
       </c>
       <c r="K251" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="B252" t="s">
         <v>122</v>
       </c>
       <c r="C252" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="J252" t="s">
-        <v>685</v>
+        <v>723</v>
       </c>
       <c r="K252" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
-        <v>701</v>
+      <c r="A253" t="s">
+        <v>681</v>
+      </c>
+      <c r="B253" t="s">
+        <v>122</v>
+      </c>
+      <c r="C253" t="s">
+        <v>682</v>
+      </c>
+      <c r="J253" t="s">
+        <v>723</v>
+      </c>
+      <c r="K253" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>589</v>
+        <v>687</v>
       </c>
       <c r="B254" t="s">
         <v>122</v>
       </c>
       <c r="C254" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="J254" t="s">
-        <v>701</v>
+        <v>723</v>
       </c>
       <c r="K254" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>699</v>
+        <v>724</v>
       </c>
       <c r="B255" t="s">
         <v>122</v>
       </c>
       <c r="C255" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="J255" t="s">
-        <v>701</v>
+        <v>723</v>
       </c>
       <c r="K255" t="s">
-        <v>182</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>705</v>
+        <v>679</v>
       </c>
       <c r="B257" t="s">
         <v>122</v>
       </c>
       <c r="C257" t="s">
-        <v>581</v>
+        <v>680</v>
       </c>
       <c r="J257" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="K257" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>697</v>
+        <v>729</v>
       </c>
       <c r="B258" t="s">
         <v>122</v>
       </c>
       <c r="C258" t="s">
-        <v>581</v>
+        <v>684</v>
       </c>
       <c r="J258" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="K258" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="B259" t="s">
         <v>122</v>
       </c>
       <c r="C259" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="J259" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="K259" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="B260" t="s">
         <v>122</v>
       </c>
       <c r="C260" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="J260" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="K260" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A261" s="2" t="s">
-        <v>706</v>
+      <c r="A261" t="s">
+        <v>687</v>
+      </c>
+      <c r="B261" t="s">
+        <v>122</v>
+      </c>
+      <c r="C261" t="s">
+        <v>688</v>
+      </c>
+      <c r="J261" t="s">
+        <v>678</v>
+      </c>
+      <c r="K261" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>707</v>
+        <v>681</v>
       </c>
       <c r="B262" t="s">
         <v>122</v>
       </c>
       <c r="C262" t="s">
-        <v>708</v>
+        <v>682</v>
       </c>
       <c r="J262" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="K262" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>688</v>
-      </c>
-      <c r="B263" t="s">
-        <v>122</v>
-      </c>
-      <c r="C263" t="s">
-        <v>709</v>
-      </c>
-      <c r="J263" t="s">
-        <v>706</v>
-      </c>
-      <c r="K263" t="s">
-        <v>14</v>
+      <c r="A263" s="2" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="B264" t="s">
         <v>122</v>
       </c>
       <c r="C264" t="s">
-        <v>711</v>
+        <v>580</v>
       </c>
       <c r="J264" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="K264" t="s">
         <v>10</v>
@@ -12035,67 +12688,55 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>712</v>
+        <v>685</v>
       </c>
       <c r="B265" t="s">
         <v>122</v>
       </c>
       <c r="C265" t="s">
-        <v>713</v>
+        <v>691</v>
       </c>
       <c r="J265" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="K265" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="B266" t="s">
         <v>122</v>
       </c>
       <c r="C266" t="s">
-        <v>715</v>
+        <v>693</v>
       </c>
       <c r="J266" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="K266" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>716</v>
-      </c>
-      <c r="B267" t="s">
-        <v>122</v>
-      </c>
-      <c r="C267" t="s">
-        <v>717</v>
-      </c>
-      <c r="J267" t="s">
-        <v>706</v>
-      </c>
-      <c r="K267" t="s">
-        <v>9</v>
+      <c r="A267" s="2" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>688</v>
+        <v>588</v>
       </c>
       <c r="B268" t="s">
         <v>122</v>
       </c>
       <c r="C268" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="J268" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="K268" t="s">
         <v>14</v>
@@ -12103,113 +12744,1674 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
       <c r="B269" t="s">
         <v>122</v>
       </c>
       <c r="C269" t="s">
-        <v>719</v>
+        <v>696</v>
       </c>
       <c r="J269" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="K269" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>688</v>
-      </c>
-      <c r="B270" t="s">
-        <v>122</v>
-      </c>
-      <c r="C270" t="s">
-        <v>709</v>
-      </c>
-      <c r="J270" t="s">
-        <v>706</v>
-      </c>
-      <c r="K270" t="s">
-        <v>8</v>
+      <c r="A270" s="2" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
-        <v>720</v>
+      <c r="A271" t="s">
+        <v>698</v>
+      </c>
+      <c r="B271" t="s">
+        <v>122</v>
+      </c>
+      <c r="C271" t="s">
+        <v>580</v>
+      </c>
+      <c r="J271" t="s">
+        <v>694</v>
+      </c>
+      <c r="K271" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>589</v>
+        <v>690</v>
       </c>
       <c r="B272" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C272" t="s">
-        <v>721</v>
+        <v>580</v>
       </c>
       <c r="J272" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="K272" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>685</v>
+      </c>
+      <c r="B273" t="s">
+        <v>122</v>
+      </c>
+      <c r="C273" t="s">
+        <v>691</v>
+      </c>
+      <c r="J273" t="s">
+        <v>694</v>
+      </c>
+      <c r="K273" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B274" s="3"/>
+      <c r="A274" t="s">
+        <v>692</v>
+      </c>
+      <c r="B274" t="s">
+        <v>122</v>
+      </c>
+      <c r="C274" t="s">
+        <v>696</v>
+      </c>
+      <c r="J274" t="s">
+        <v>694</v>
+      </c>
+      <c r="K274" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B275" s="3"/>
+      <c r="A275" s="2" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B276" s="3"/>
+      <c r="A276" t="s">
+        <v>700</v>
+      </c>
+      <c r="B276" t="s">
+        <v>122</v>
+      </c>
+      <c r="C276" t="s">
+        <v>701</v>
+      </c>
+      <c r="J276" t="s">
+        <v>725</v>
+      </c>
+      <c r="K276" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B277" s="3"/>
+      <c r="A277" t="s">
+        <v>681</v>
+      </c>
+      <c r="B277" t="s">
+        <v>122</v>
+      </c>
+      <c r="C277" t="s">
+        <v>702</v>
+      </c>
+      <c r="J277" t="s">
+        <v>725</v>
+      </c>
+      <c r="K277" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B278" s="3"/>
+      <c r="A278" t="s">
+        <v>703</v>
+      </c>
+      <c r="B278" t="s">
+        <v>122</v>
+      </c>
+      <c r="C278" t="s">
+        <v>704</v>
+      </c>
+      <c r="J278" t="s">
+        <v>725</v>
+      </c>
+      <c r="K278" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B279" s="3"/>
+      <c r="A279" t="s">
+        <v>705</v>
+      </c>
+      <c r="B279" t="s">
+        <v>122</v>
+      </c>
+      <c r="C279" t="s">
+        <v>706</v>
+      </c>
+      <c r="J279" t="s">
+        <v>725</v>
+      </c>
+      <c r="K279" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B280" s="3"/>
+      <c r="A280" t="s">
+        <v>707</v>
+      </c>
+      <c r="B280" t="s">
+        <v>122</v>
+      </c>
+      <c r="C280" t="s">
+        <v>708</v>
+      </c>
+      <c r="J280" t="s">
+        <v>725</v>
+      </c>
+      <c r="K280" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B281" s="3"/>
+      <c r="A281" t="s">
+        <v>709</v>
+      </c>
+      <c r="B281" t="s">
+        <v>122</v>
+      </c>
+      <c r="C281" t="s">
+        <v>710</v>
+      </c>
+      <c r="J281" t="s">
+        <v>725</v>
+      </c>
+      <c r="K281" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B282" s="3"/>
+      <c r="A282" t="s">
+        <v>681</v>
+      </c>
+      <c r="B282" t="s">
+        <v>122</v>
+      </c>
+      <c r="C282" t="s">
+        <v>702</v>
+      </c>
+      <c r="J282" t="s">
+        <v>725</v>
+      </c>
+      <c r="K282" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B283" s="3"/>
+      <c r="A283" t="s">
+        <v>711</v>
+      </c>
+      <c r="B283" t="s">
+        <v>122</v>
+      </c>
+      <c r="C283" t="s">
+        <v>712</v>
+      </c>
+      <c r="J283" t="s">
+        <v>725</v>
+      </c>
+      <c r="K283" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>726</v>
+      </c>
+      <c r="B284" t="s">
+        <v>122</v>
+      </c>
+      <c r="C284" t="s">
+        <v>727</v>
+      </c>
+      <c r="J284" t="s">
+        <v>725</v>
+      </c>
+      <c r="K284" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>607</v>
-      </c>
-      <c r="B286" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B286" t="s">
         <v>122</v>
       </c>
       <c r="C286" t="s">
-        <v>608</v>
+        <v>701</v>
       </c>
       <c r="J286" t="s">
-        <v>596</v>
+        <v>699</v>
       </c>
       <c r="K286" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>728</v>
+      </c>
+      <c r="B287" t="s">
+        <v>122</v>
+      </c>
+      <c r="C287" t="s">
+        <v>704</v>
+      </c>
+      <c r="J287" t="s">
+        <v>699</v>
+      </c>
+      <c r="K287" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>703</v>
+      </c>
+      <c r="B288" t="s">
+        <v>122</v>
+      </c>
+      <c r="C288" t="s">
+        <v>704</v>
+      </c>
+      <c r="J288" t="s">
+        <v>699</v>
+      </c>
+      <c r="K288" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>705</v>
+      </c>
+      <c r="B289" t="s">
+        <v>122</v>
+      </c>
+      <c r="C289" t="s">
+        <v>706</v>
+      </c>
+      <c r="J289" t="s">
+        <v>699</v>
+      </c>
+      <c r="K289" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>707</v>
+      </c>
+      <c r="B290" t="s">
+        <v>122</v>
+      </c>
+      <c r="C290" t="s">
+        <v>708</v>
+      </c>
+      <c r="J290" t="s">
+        <v>699</v>
+      </c>
+      <c r="K290" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>709</v>
+      </c>
+      <c r="B291" t="s">
+        <v>122</v>
+      </c>
+      <c r="C291" t="s">
+        <v>710</v>
+      </c>
+      <c r="J291" t="s">
+        <v>699</v>
+      </c>
+      <c r="K291" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>711</v>
+      </c>
+      <c r="B292" t="s">
+        <v>122</v>
+      </c>
+      <c r="C292" t="s">
+        <v>712</v>
+      </c>
+      <c r="J292" t="s">
+        <v>699</v>
+      </c>
+      <c r="K292" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>681</v>
+      </c>
+      <c r="B293" t="s">
+        <v>122</v>
+      </c>
+      <c r="C293" t="s">
+        <v>702</v>
+      </c>
+      <c r="J293" t="s">
+        <v>699</v>
+      </c>
+      <c r="K293" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>588</v>
+      </c>
+      <c r="B295" t="s">
+        <v>111</v>
+      </c>
+      <c r="C295" t="s">
+        <v>730</v>
+      </c>
+      <c r="J295" t="s">
+        <v>713</v>
+      </c>
+      <c r="K295" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B297" s="3"/>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298" s="45"/>
+      <c r="B298" s="45"/>
+      <c r="C298" s="62" t="s">
+        <v>741</v>
+      </c>
+      <c r="D298" s="45"/>
+      <c r="E298" s="45"/>
+      <c r="F298" s="45"/>
+      <c r="G298" s="45"/>
+      <c r="H298" s="45"/>
+      <c r="I298" s="45"/>
+      <c r="J298" s="45"/>
+      <c r="K298" s="45"/>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>368</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="J299" t="s">
+        <v>743</v>
+      </c>
+      <c r="K299" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C300" s="1"/>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C301" s="1"/>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>745</v>
+      </c>
+      <c r="B302" t="s">
+        <v>16</v>
+      </c>
+      <c r="C302" t="s">
+        <v>746</v>
+      </c>
+      <c r="J302" t="s">
+        <v>744</v>
+      </c>
+      <c r="K302" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>747</v>
+      </c>
+      <c r="B303" t="s">
+        <v>16</v>
+      </c>
+      <c r="C303" t="s">
+        <v>748</v>
+      </c>
+      <c r="J303" t="s">
+        <v>744</v>
+      </c>
+      <c r="K303" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>749</v>
+      </c>
+      <c r="B304" t="s">
+        <v>16</v>
+      </c>
+      <c r="C304" t="s">
+        <v>750</v>
+      </c>
+      <c r="J304" t="s">
+        <v>744</v>
+      </c>
+      <c r="K304" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>751</v>
+      </c>
+      <c r="B305" t="s">
+        <v>122</v>
+      </c>
+      <c r="C305" t="s">
+        <v>752</v>
+      </c>
+      <c r="J305" t="s">
+        <v>744</v>
+      </c>
+      <c r="K305" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>732</v>
+      </c>
+      <c r="B306" t="s">
+        <v>122</v>
+      </c>
+      <c r="C306" t="s">
+        <v>753</v>
+      </c>
+      <c r="J306" t="s">
+        <v>744</v>
+      </c>
+      <c r="K306" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>754</v>
+      </c>
+      <c r="B307" t="s">
+        <v>122</v>
+      </c>
+      <c r="C307" t="s">
+        <v>755</v>
+      </c>
+      <c r="J307" t="s">
+        <v>744</v>
+      </c>
+      <c r="K307" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>732</v>
+      </c>
+      <c r="B308" t="s">
+        <v>122</v>
+      </c>
+      <c r="C308" t="s">
+        <v>753</v>
+      </c>
+      <c r="J308" t="s">
+        <v>744</v>
+      </c>
+      <c r="K308" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>756</v>
+      </c>
+      <c r="B309" t="s">
+        <v>122</v>
+      </c>
+      <c r="C309" t="s">
+        <v>757</v>
+      </c>
+      <c r="J309" t="s">
+        <v>744</v>
+      </c>
+      <c r="K309" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>758</v>
+      </c>
+      <c r="B310" t="s">
+        <v>16</v>
+      </c>
+      <c r="C310" t="s">
+        <v>138</v>
+      </c>
+      <c r="J310" t="s">
+        <v>744</v>
+      </c>
+      <c r="K310" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C312" s="1"/>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>745</v>
+      </c>
+      <c r="B313" t="s">
+        <v>16</v>
+      </c>
+      <c r="C313" t="s">
+        <v>746</v>
+      </c>
+      <c r="J313" t="s">
+        <v>759</v>
+      </c>
+      <c r="K313" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>747</v>
+      </c>
+      <c r="B314" t="s">
+        <v>16</v>
+      </c>
+      <c r="C314" t="s">
+        <v>748</v>
+      </c>
+      <c r="J314" t="s">
+        <v>759</v>
+      </c>
+      <c r="K314" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>749</v>
+      </c>
+      <c r="B315" t="s">
+        <v>16</v>
+      </c>
+      <c r="C315" t="s">
+        <v>750</v>
+      </c>
+      <c r="J315" t="s">
+        <v>759</v>
+      </c>
+      <c r="K315" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>751</v>
+      </c>
+      <c r="B316" t="s">
+        <v>122</v>
+      </c>
+      <c r="C316" t="s">
+        <v>752</v>
+      </c>
+      <c r="J316" t="s">
+        <v>759</v>
+      </c>
+      <c r="K316" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>754</v>
+      </c>
+      <c r="B317" t="s">
+        <v>122</v>
+      </c>
+      <c r="C317" t="s">
+        <v>755</v>
+      </c>
+      <c r="J317" t="s">
+        <v>759</v>
+      </c>
+      <c r="K317" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>756</v>
+      </c>
+      <c r="B318" t="s">
+        <v>122</v>
+      </c>
+      <c r="C318" t="s">
+        <v>757</v>
+      </c>
+      <c r="J318" t="s">
+        <v>759</v>
+      </c>
+      <c r="K318" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>732</v>
+      </c>
+      <c r="B319" t="s">
+        <v>122</v>
+      </c>
+      <c r="C319" t="s">
+        <v>753</v>
+      </c>
+      <c r="J319" t="s">
+        <v>759</v>
+      </c>
+      <c r="K319" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>761</v>
+      </c>
+      <c r="B322" t="s">
+        <v>16</v>
+      </c>
+      <c r="C322" t="s">
+        <v>762</v>
+      </c>
+      <c r="J322" t="s">
+        <v>760</v>
+      </c>
+      <c r="K322" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>763</v>
+      </c>
+      <c r="B323" t="s">
+        <v>16</v>
+      </c>
+      <c r="C323" t="s">
+        <v>764</v>
+      </c>
+      <c r="J323" t="s">
+        <v>760</v>
+      </c>
+      <c r="K323" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>765</v>
+      </c>
+      <c r="B324" t="s">
+        <v>16</v>
+      </c>
+      <c r="C324" t="s">
+        <v>766</v>
+      </c>
+      <c r="J324" t="s">
+        <v>760</v>
+      </c>
+      <c r="K324" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>767</v>
+      </c>
+      <c r="B325" t="s">
+        <v>122</v>
+      </c>
+      <c r="C325" t="s">
+        <v>755</v>
+      </c>
+      <c r="J325" t="s">
+        <v>760</v>
+      </c>
+      <c r="K325" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>768</v>
+      </c>
+      <c r="B326" t="s">
+        <v>122</v>
+      </c>
+      <c r="C326" t="s">
+        <v>755</v>
+      </c>
+      <c r="J326" t="s">
+        <v>760</v>
+      </c>
+      <c r="K326" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>732</v>
+      </c>
+      <c r="B327" t="s">
+        <v>122</v>
+      </c>
+      <c r="C327" t="s">
+        <v>753</v>
+      </c>
+      <c r="J327" t="s">
+        <v>760</v>
+      </c>
+      <c r="K327" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>761</v>
+      </c>
+      <c r="B330" t="s">
+        <v>16</v>
+      </c>
+      <c r="C330" t="s">
+        <v>762</v>
+      </c>
+      <c r="J330" t="s">
+        <v>770</v>
+      </c>
+      <c r="K330" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>763</v>
+      </c>
+      <c r="B331" t="s">
+        <v>16</v>
+      </c>
+      <c r="C331" t="s">
+        <v>764</v>
+      </c>
+      <c r="J331" t="s">
+        <v>770</v>
+      </c>
+      <c r="K331" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>771</v>
+      </c>
+      <c r="B332" t="s">
+        <v>16</v>
+      </c>
+      <c r="C332" t="s">
+        <v>772</v>
+      </c>
+      <c r="J332" t="s">
+        <v>770</v>
+      </c>
+      <c r="K332" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>751</v>
+      </c>
+      <c r="B333" t="s">
+        <v>122</v>
+      </c>
+      <c r="C333" t="s">
+        <v>773</v>
+      </c>
+      <c r="J333" t="s">
+        <v>770</v>
+      </c>
+      <c r="K333" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>732</v>
+      </c>
+      <c r="B334" t="s">
+        <v>122</v>
+      </c>
+      <c r="C334" t="s">
+        <v>774</v>
+      </c>
+      <c r="J334" t="s">
+        <v>770</v>
+      </c>
+      <c r="K334" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>754</v>
+      </c>
+      <c r="B335" t="s">
+        <v>122</v>
+      </c>
+      <c r="C335" t="s">
+        <v>775</v>
+      </c>
+      <c r="J335" t="s">
+        <v>770</v>
+      </c>
+      <c r="K335" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>758</v>
+      </c>
+      <c r="B336" t="s">
+        <v>16</v>
+      </c>
+      <c r="C336" t="s">
+        <v>776</v>
+      </c>
+      <c r="J336" t="s">
+        <v>770</v>
+      </c>
+      <c r="K336" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>771</v>
+      </c>
+      <c r="B339" t="s">
+        <v>16</v>
+      </c>
+      <c r="C339" t="s">
+        <v>772</v>
+      </c>
+      <c r="J339" t="s">
+        <v>778</v>
+      </c>
+      <c r="K339" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>751</v>
+      </c>
+      <c r="B340" t="s">
+        <v>122</v>
+      </c>
+      <c r="C340" t="s">
+        <v>773</v>
+      </c>
+      <c r="J340" t="s">
+        <v>778</v>
+      </c>
+      <c r="K340" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>754</v>
+      </c>
+      <c r="B341" t="s">
+        <v>122</v>
+      </c>
+      <c r="C341" t="s">
+        <v>775</v>
+      </c>
+      <c r="J341" t="s">
+        <v>778</v>
+      </c>
+      <c r="K341" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>732</v>
+      </c>
+      <c r="B342" t="s">
+        <v>122</v>
+      </c>
+      <c r="C342" t="s">
+        <v>774</v>
+      </c>
+      <c r="J342" t="s">
+        <v>778</v>
+      </c>
+      <c r="K342" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>780</v>
+      </c>
+      <c r="B345" t="s">
+        <v>16</v>
+      </c>
+      <c r="C345" t="s">
+        <v>762</v>
+      </c>
+      <c r="J345" t="s">
+        <v>781</v>
+      </c>
+      <c r="K345" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>763</v>
+      </c>
+      <c r="B346" t="s">
+        <v>16</v>
+      </c>
+      <c r="C346" t="s">
+        <v>782</v>
+      </c>
+      <c r="J346" t="s">
+        <v>781</v>
+      </c>
+      <c r="K346" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>783</v>
+      </c>
+      <c r="B347" t="s">
+        <v>16</v>
+      </c>
+      <c r="C347" t="s">
+        <v>784</v>
+      </c>
+      <c r="J347" t="s">
+        <v>781</v>
+      </c>
+      <c r="K347" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>785</v>
+      </c>
+      <c r="B348" t="s">
+        <v>16</v>
+      </c>
+      <c r="C348" t="s">
+        <v>786</v>
+      </c>
+      <c r="J348" t="s">
+        <v>781</v>
+      </c>
+      <c r="K348" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>767</v>
+      </c>
+      <c r="B349" t="s">
+        <v>122</v>
+      </c>
+      <c r="C349" t="s">
+        <v>775</v>
+      </c>
+      <c r="J349" t="s">
+        <v>781</v>
+      </c>
+      <c r="K349" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>754</v>
+      </c>
+      <c r="B350" t="s">
+        <v>122</v>
+      </c>
+      <c r="C350" t="s">
+        <v>775</v>
+      </c>
+      <c r="J350" t="s">
+        <v>781</v>
+      </c>
+      <c r="K350" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>732</v>
+      </c>
+      <c r="B351" t="s">
+        <v>16</v>
+      </c>
+      <c r="C351" t="s">
+        <v>787</v>
+      </c>
+      <c r="J351" t="s">
+        <v>781</v>
+      </c>
+      <c r="K351" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>780</v>
+      </c>
+      <c r="B354" t="s">
+        <v>16</v>
+      </c>
+      <c r="C354" t="s">
+        <v>762</v>
+      </c>
+      <c r="J354" t="s">
+        <v>788</v>
+      </c>
+      <c r="K354" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>789</v>
+      </c>
+      <c r="B355" t="s">
+        <v>16</v>
+      </c>
+      <c r="C355" t="s">
+        <v>782</v>
+      </c>
+      <c r="J355" t="s">
+        <v>788</v>
+      </c>
+      <c r="K355" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>783</v>
+      </c>
+      <c r="B356" t="s">
+        <v>16</v>
+      </c>
+      <c r="C356" t="s">
+        <v>784</v>
+      </c>
+      <c r="J356" t="s">
+        <v>788</v>
+      </c>
+      <c r="K356" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>790</v>
+      </c>
+      <c r="B357" t="s">
+        <v>16</v>
+      </c>
+      <c r="C357" t="s">
+        <v>791</v>
+      </c>
+      <c r="J357" t="s">
+        <v>788</v>
+      </c>
+      <c r="K357" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>792</v>
+      </c>
+      <c r="B358" t="s">
+        <v>122</v>
+      </c>
+      <c r="C358" t="s">
+        <v>793</v>
+      </c>
+      <c r="J358" t="s">
+        <v>788</v>
+      </c>
+      <c r="K358" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>732</v>
+      </c>
+      <c r="B359" t="s">
+        <v>16</v>
+      </c>
+      <c r="C359" t="s">
+        <v>794</v>
+      </c>
+      <c r="J359" t="s">
+        <v>788</v>
+      </c>
+      <c r="K359" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>795</v>
+      </c>
+      <c r="B360" t="s">
+        <v>122</v>
+      </c>
+      <c r="C360" t="s">
+        <v>796</v>
+      </c>
+      <c r="J360" t="s">
+        <v>788</v>
+      </c>
+      <c r="K360" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>732</v>
+      </c>
+      <c r="B361" t="s">
+        <v>16</v>
+      </c>
+      <c r="C361" t="s">
+        <v>794</v>
+      </c>
+      <c r="J361" t="s">
+        <v>788</v>
+      </c>
+      <c r="K361" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>754</v>
+      </c>
+      <c r="B362" t="s">
+        <v>122</v>
+      </c>
+      <c r="C362" t="s">
+        <v>797</v>
+      </c>
+      <c r="J362" t="s">
+        <v>788</v>
+      </c>
+      <c r="K362" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>732</v>
+      </c>
+      <c r="B363" t="s">
+        <v>16</v>
+      </c>
+      <c r="C363" t="s">
+        <v>794</v>
+      </c>
+      <c r="J363" t="s">
+        <v>788</v>
+      </c>
+      <c r="K363" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>151</v>
+      </c>
+      <c r="B364" t="s">
+        <v>122</v>
+      </c>
+      <c r="C364" t="s">
+        <v>798</v>
+      </c>
+      <c r="J364" t="s">
+        <v>788</v>
+      </c>
+      <c r="K364" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>758</v>
+      </c>
+      <c r="B365" t="s">
+        <v>16</v>
+      </c>
+      <c r="C365" t="s">
+        <v>799</v>
+      </c>
+      <c r="J365" t="s">
+        <v>788</v>
+      </c>
+      <c r="K365" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>790</v>
+      </c>
+      <c r="B368" t="s">
+        <v>16</v>
+      </c>
+      <c r="C368" t="s">
+        <v>791</v>
+      </c>
+      <c r="J368" t="s">
+        <v>800</v>
+      </c>
+      <c r="K368" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>792</v>
+      </c>
+      <c r="B369" t="s">
+        <v>122</v>
+      </c>
+      <c r="C369" t="s">
+        <v>793</v>
+      </c>
+      <c r="J369" t="s">
+        <v>800</v>
+      </c>
+      <c r="K369" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>795</v>
+      </c>
+      <c r="B370" t="s">
+        <v>122</v>
+      </c>
+      <c r="C370" t="s">
+        <v>796</v>
+      </c>
+      <c r="J370" t="s">
+        <v>800</v>
+      </c>
+      <c r="K370" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>754</v>
+      </c>
+      <c r="B371" t="s">
+        <v>122</v>
+      </c>
+      <c r="C371" t="s">
+        <v>797</v>
+      </c>
+      <c r="J371" t="s">
+        <v>800</v>
+      </c>
+      <c r="K371" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>151</v>
+      </c>
+      <c r="B372" t="s">
+        <v>122</v>
+      </c>
+      <c r="C372" t="s">
+        <v>798</v>
+      </c>
+      <c r="J372" t="s">
+        <v>800</v>
+      </c>
+      <c r="K372" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>732</v>
+      </c>
+      <c r="B373" t="s">
+        <v>16</v>
+      </c>
+      <c r="C373" t="s">
+        <v>794</v>
+      </c>
+      <c r="J373" t="s">
+        <v>800</v>
+      </c>
+      <c r="K373" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>758</v>
+      </c>
+      <c r="B374" t="s">
+        <v>16</v>
+      </c>
+      <c r="C374" t="s">
+        <v>799</v>
+      </c>
+      <c r="J374" t="s">
+        <v>800</v>
+      </c>
+      <c r="K374" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>802</v>
+      </c>
+      <c r="B377" t="s">
+        <v>16</v>
+      </c>
+      <c r="C377" t="s">
+        <v>803</v>
+      </c>
+      <c r="J377" t="s">
+        <v>804</v>
+      </c>
+      <c r="K377" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>805</v>
+      </c>
+      <c r="B378" t="s">
+        <v>122</v>
+      </c>
+      <c r="C378" t="s">
+        <v>796</v>
+      </c>
+      <c r="J378" t="s">
+        <v>804</v>
+      </c>
+      <c r="K378" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>795</v>
+      </c>
+      <c r="B379" t="s">
+        <v>122</v>
+      </c>
+      <c r="C379" t="s">
+        <v>796</v>
+      </c>
+      <c r="J379" t="s">
+        <v>804</v>
+      </c>
+      <c r="K379" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>732</v>
+      </c>
+      <c r="B380" t="s">
+        <v>16</v>
+      </c>
+      <c r="C380" t="s">
+        <v>794</v>
+      </c>
+      <c r="J380" t="s">
+        <v>804</v>
+      </c>
+      <c r="K380" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>588</v>
+      </c>
+      <c r="B383" t="s">
+        <v>16</v>
+      </c>
+      <c r="C383" t="s">
+        <v>807</v>
+      </c>
+      <c r="J383" t="s">
+        <v>808</v>
+      </c>
+      <c r="K383" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>810</v>
+      </c>
+      <c r="B386" t="s">
+        <v>16</v>
+      </c>
+      <c r="C386" t="s">
+        <v>811</v>
+      </c>
+      <c r="J386" t="s">
+        <v>812</v>
+      </c>
+      <c r="K386" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>780</v>
+      </c>
+      <c r="B389" t="s">
+        <v>16</v>
+      </c>
+      <c r="C389" t="s">
+        <v>762</v>
+      </c>
+      <c r="J389" t="s">
+        <v>814</v>
+      </c>
+      <c r="K389" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>763</v>
+      </c>
+      <c r="B390" t="s">
+        <v>16</v>
+      </c>
+      <c r="C390" t="s">
+        <v>815</v>
+      </c>
+      <c r="J390" t="s">
+        <v>814</v>
+      </c>
+      <c r="K390" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>816</v>
+      </c>
+      <c r="B391" t="s">
+        <v>16</v>
+      </c>
+      <c r="C391" t="s">
+        <v>817</v>
+      </c>
+      <c r="J391" t="s">
+        <v>814</v>
+      </c>
+      <c r="K391" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C41" r:id="rId2"/>
-    <hyperlink ref="C117" r:id="rId3"/>
-    <hyperlink ref="C239" r:id="rId4"/>
+    <hyperlink ref="C43" r:id="rId2"/>
+    <hyperlink ref="C119" r:id="rId3"/>
+    <hyperlink ref="C246" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
